--- a/twitter_data/Top_Retweets.xlsx
+++ b/twitter_data/Top_Retweets.xlsx
@@ -4,16 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="new_classified (higher thres)" sheetId="4" r:id="rId1"/>
     <sheet name="low thres classfied tweets (hs0" sheetId="3" r:id="rId2"/>
     <sheet name="tweets9_posdab top (no hs)" sheetId="5" r:id="rId3"/>
-    <sheet name="maxdf = 1000" sheetId="8" r:id="rId4"/>
-    <sheet name="maxdf = 3" sheetId="7" r:id="rId5"/>
-    <sheet name="first " sheetId="2" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
+    <sheet name="training set - RT &gt;=5" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="690">
   <si>
     <t xml:space="preserve">https://twitter.com/#!/ReallyHighIdeas/status/704773404239536132 </t>
   </si>
@@ -1029,15 +1027,6 @@
     <t>Thu Jun 02 03:42:54 +0000 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/#!/_Choccie/status/738381173651607552 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">price is way too high you need to cut it dab </t>
-  </si>
-  <si>
-    <t>Thu Jun 02 14:46:04 +0000 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://twitter.com/#!/psychopshow/status/740613214581334017 </t>
   </si>
   <si>
@@ -1110,24 +1099,6 @@
     <t>Sun Jun 05 00:25:49 +0000 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/#!/yodabba/status/739634227738726401 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">read this guide before buying a titanium nail  concentrates dabs </t>
-  </si>
-  <si>
-    <t>Mon Jun 06 01:45:16 +0000 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/#!/danielawhoop/status/739831654194126848 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hitting the dab is my natural high </t>
-  </si>
-  <si>
-    <t>Mon Jun 06 14:49:46 +0000 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://twitter.com/#!/bronwynnrosee/status/739882704632569857 </t>
   </si>
   <si>
@@ -1281,15 +1252,6 @@
     <t>Tue Jun 07 19:50:07 +0000 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/#!/destitss/status/740646671244136449 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">im trynna take some dabs and go swimming </t>
-  </si>
-  <si>
-    <t>Wed Jun 08 20:48:21 +0000 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://twitter.com/#!/Mz_Arabie/status/740902556273156101 </t>
   </si>
   <si>
@@ -1425,15 +1387,6 @@
     <t>Tue Jun 14 15:43:39 +0000 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/#!/theprincessthug/status/742943220322172928 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dabs blunts </t>
-  </si>
-  <si>
-    <t>Wed Jun 15 04:54:01 +0000 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://twitter.com/#!/MIeXtrax/status/743111681413353472 </t>
   </si>
   <si>
@@ -1569,33 +1522,6 @@
     <t>Sat Jun 04 23:21:45 +0000 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/#!/MOLLYtheHIPPY/status/739242494303539200 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lets take dabs and talk about our dreams </t>
-  </si>
-  <si>
-    <t>Sat Jun 04 23:48:39 +0000 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/#!/Gwalla407/status/739252172492148736 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">me and take dabs and dont cough </t>
-  </si>
-  <si>
-    <t>Sun Jun 05 00:27:07 +0000 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/#!/Bex_HitGirl/status/739254196013305856 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">i liked a video from  bumblebee dabbing  transformers earth wars party </t>
-  </si>
-  <si>
-    <t>Sun Jun 05 00:35:09 +0000 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://twitter.com/#!/LysuhhJanee/status/739312325144891392 </t>
   </si>
   <si>
@@ -1614,12 +1540,6 @@
     <t>Sun Jun 05 04:42:25 +0000 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/#!/WeirdGirl2364/status/739317444263706624 </t>
-  </si>
-  <si>
-    <t>Sun Jun 05 04:46:29 +0000 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://twitter.com/#!/Damneaa/status/739357254801989632 </t>
   </si>
   <si>
@@ -1653,15 +1573,6 @@
     <t>Mon Jun 06 03:55:25 +0000 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/#!/AJP_ResJournal/status/739796627104387072 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">have you heard of dabbing with marijuana time to ask your adolescent patients about this </t>
-  </si>
-  <si>
-    <t>Mon Jun 06 12:30:35 +0000 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://twitter.com/#!/JaniaTemmer/status/739820084231700485 </t>
   </si>
   <si>
@@ -1671,15 +1582,6 @@
     <t>Mon Jun 06 14:03:47 +0000 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/#!/m00ndazzee/status/739874244687888385 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fat dabs and loud music </t>
-  </si>
-  <si>
-    <t>Mon Jun 06 17:39:00 +0000 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://twitter.com/#!/ReelLiveFilms/status/739950031906562049 </t>
   </si>
   <si>
@@ -1707,15 +1609,6 @@
     <t>Tue Jun 07 14:48:27 +0000 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/#!/RiteGreens420/status/740226402964758528 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">enjoy your morning wakenbake snaps bowls blunts joints and dabs </t>
-  </si>
-  <si>
-    <t>Tue Jun 07 16:58:21 +0000 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://twitter.com/#!/RackedUpBaine/status/740243522482098176 </t>
   </si>
   <si>
@@ -1740,24 +1633,6 @@
     <t>Tue Jun 07 20:31:58 +0000 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/#!/SCOEdVentures/status/740290873989074944 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">high ropes adventures are always better with catwalk dabbing  dab sc2 ropescourseofcourse </t>
-  </si>
-  <si>
-    <t>Tue Jun 07 21:14:32 +0000 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/#!/drxgzilla/status/740616935621136384 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">when your friends talking all that good shit about how much they smoke and you give them their first dab </t>
-  </si>
-  <si>
-    <t>Wed Jun 08 18:50:12 +0000 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://twitter.com/#!/smokers_guide/status/740686490116755456 </t>
   </si>
   <si>
@@ -1767,15 +1642,6 @@
     <t>Wed Jun 08 23:26:35 +0000 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/#!/NaturesAltpdx/status/740725297264373760 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">when you hot box the solar system  10 off all bud highsociety mmj trees portland dabs  cbd legalize hotbox </t>
-  </si>
-  <si>
-    <t>Thu Jun 09 02:00:47 +0000 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://twitter.com/#!/DirasWorld/status/740789519579000833 </t>
   </si>
   <si>
@@ -1845,15 +1711,6 @@
     <t>Fri Jun 10 23:23:36 +0000 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/#!/JazzRollupBeck/status/741451940220051458 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">its gonna almost be 100 tomorrow that means drinking a couple of beers smoking some dabs and chilling inside all day </t>
-  </si>
-  <si>
-    <t>Sat Jun 11 02:08:12 +0000 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://twitter.com/#!/Mega420/status/741494863217102848 </t>
   </si>
   <si>
@@ -1890,33 +1747,6 @@
     <t>Sat Jun 11 12:55:58 +0000 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/#!/ErbGreen/status/741651551958142976 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dab time folks whos with us  cannabis pot dabbing blaze cannabismatters cannabis highsociety </t>
-  </si>
-  <si>
-    <t>Sat Jun 11 15:21:23 +0000 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/#!/ooolivvia/status/742096809850507264 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">all i need is a few fat dabs and a bomb ass massage </t>
-  </si>
-  <si>
-    <t>Sun Jun 12 20:50:41 +0000 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/#!/Alyssatoobeast/status/742116736170741760 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dabs and blunts are always lit </t>
-  </si>
-  <si>
-    <t>Sun Jun 12 22:09:52 +0000 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://twitter.com/#!/CodeineCo_/status/742222762052190209 </t>
   </si>
   <si>
@@ -1941,15 +1771,6 @@
     <t>Mon Jun 13 07:33:18 +0000 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/#!/saenz_noah/status/742489243226775552 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fat dabs in the summer time </t>
-  </si>
-  <si>
-    <t>Mon Jun 13 22:50:05 +0000 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://twitter.com/#!/PlayMaker_DUBB/status/742513978396442624 </t>
   </si>
   <si>
@@ -2248,6 +2069,30 @@
   </si>
   <si>
     <t>url/pic</t>
+  </si>
+  <si>
+    <t>Tweet URL</t>
+  </si>
+  <si>
+    <t>Tweet Text</t>
+  </si>
+  <si>
+    <t>User Category</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>IDK</t>
+  </si>
+  <si>
+    <t>Date Tweeted</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -2835,178 +2680,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C16" sqref="C1:C16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="73.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>859</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>97</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>2357088818</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>85884</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>932</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I2" t="s">
         <v>119</v>
       </c>
-      <c r="L1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="J2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>97</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>99</v>
       </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2">
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3">
         <v>2267132693</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>13695</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>3262</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>70</v>
       </c>
-      <c r="K2" t="s">
-        <v>712</v>
-      </c>
-      <c r="L2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="I3" t="s">
+        <v>653</v>
+      </c>
+      <c r="J3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>95</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>143014330</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>825044</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>71</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>55</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4">
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5">
         <v>418395156</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>12023</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>887</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>73</v>
       </c>
-      <c r="K4" t="s">
+      <c r="I5" t="s">
         <v>123</v>
       </c>
-      <c r="M4" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
+      <c r="J5" t="s">
+        <v>652</v>
+      </c>
+      <c r="K5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>16</v>
-      </c>
-      <c r="B5">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5">
-        <v>2634377088</v>
-      </c>
-      <c r="F5">
-        <v>67605</v>
-      </c>
-      <c r="G5">
-        <v>23419</v>
-      </c>
-      <c r="H5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>715</v>
-      </c>
-      <c r="L5" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>17</v>
       </c>
       <c r="B6">
         <v>51</v>
@@ -3027,857 +2879,863 @@
         <v>23419</v>
       </c>
       <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s">
+        <v>656</v>
+      </c>
+      <c r="J6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>2634377088</v>
+      </c>
+      <c r="F7">
+        <v>67605</v>
+      </c>
+      <c r="G7">
+        <v>23419</v>
+      </c>
+      <c r="H7" t="s">
         <v>75</v>
       </c>
-      <c r="K6" t="s">
-        <v>715</v>
-      </c>
-      <c r="L6" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="I7" t="s">
+        <v>656</v>
+      </c>
+      <c r="J7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7">
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8">
         <v>523454122</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>190099</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>35979</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>77</v>
       </c>
-      <c r="K7" t="s">
+      <c r="I8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>104</v>
       </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8">
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9">
         <v>328794853</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>1035</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>385</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>78</v>
       </c>
-      <c r="K8" t="s">
+      <c r="I9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>107</v>
       </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9">
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10">
         <v>7.0218678536375898E+17</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>1709</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>3367</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>81</v>
       </c>
-      <c r="K9" t="s">
-        <v>715</v>
-      </c>
-      <c r="L9" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
+      <c r="I10" t="s">
+        <v>656</v>
+      </c>
+      <c r="J10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
         <v>135</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>136</v>
       </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10">
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11">
         <v>418395156</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>12023</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>887</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>137</v>
       </c>
-      <c r="K10" t="s">
+      <c r="I11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>108</v>
       </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11">
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12">
         <v>331521215</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>57494</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>51490</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>82</v>
       </c>
-      <c r="K11" t="s">
+      <c r="I12" t="s">
         <v>119</v>
       </c>
-      <c r="L11" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+      <c r="J12" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>109</v>
       </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12">
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13">
         <v>7.0218678536375898E+17</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>1709</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>3367</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>83</v>
       </c>
-      <c r="K12" t="s">
-        <v>715</v>
-      </c>
-      <c r="L12" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+      <c r="I13" t="s">
+        <v>656</v>
+      </c>
+      <c r="J13" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>110</v>
       </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13">
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14">
         <v>2509174009</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>675</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>452</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>84</v>
       </c>
-      <c r="K13" t="s">
+      <c r="I14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>113</v>
       </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14">
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15">
         <v>1127027322</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>2730</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>963</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>87</v>
       </c>
-      <c r="K14" t="s">
+      <c r="I15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>88</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>2283141744</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>950</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>193</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>89</v>
       </c>
-      <c r="K15" t="s">
+      <c r="I16" t="s">
         <v>122</v>
       </c>
-      <c r="L15" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
+      <c r="J16" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>117</v>
       </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16">
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17">
         <v>450955272</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>8096</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>2340</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>94</v>
       </c>
-      <c r="K16" t="s">
+      <c r="I17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
         <v>183</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17">
-        <v>32627702</v>
-      </c>
-      <c r="F17">
-        <v>309188</v>
-      </c>
-      <c r="G17">
-        <v>33861</v>
-      </c>
-      <c r="H17" t="s">
-        <v>185</v>
-      </c>
-      <c r="K17" t="s">
-        <v>715</v>
-      </c>
-      <c r="L17" t="s">
-        <v>721</v>
-      </c>
-      <c r="M17" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>186</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18">
+        <v>32627702</v>
+      </c>
+      <c r="F18">
+        <v>309188</v>
+      </c>
+      <c r="G18">
+        <v>33861</v>
+      </c>
+      <c r="H18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I18" t="s">
+        <v>656</v>
+      </c>
+      <c r="J18" t="s">
+        <v>662</v>
+      </c>
+      <c r="K18" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
         <v>187</v>
       </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18">
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19">
         <v>2177303550</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>230</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>233</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>188</v>
       </c>
-      <c r="K18" t="s">
+      <c r="I19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
         <v>189</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>190</v>
       </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19">
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20">
         <v>26130520</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>38918</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>448</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>191</v>
       </c>
-      <c r="K19" t="s">
+      <c r="I20" t="s">
         <v>124</v>
       </c>
-      <c r="L19" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
+      <c r="J20" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
         <v>192</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20">
-        <v>261834019</v>
-      </c>
-      <c r="F20">
-        <v>1388</v>
-      </c>
-      <c r="G20">
-        <v>1153</v>
-      </c>
-      <c r="H20" t="s">
-        <v>194</v>
-      </c>
-      <c r="K20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>195</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>261834019</v>
+      </c>
+      <c r="F21">
+        <v>1388</v>
+      </c>
+      <c r="G21">
+        <v>1153</v>
+      </c>
+      <c r="H21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
         <v>196</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>88</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>784890702</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>23316</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>25524</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>197</v>
       </c>
-      <c r="K21" t="s">
-        <v>715</v>
-      </c>
-      <c r="L21" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
+      <c r="I22" t="s">
+        <v>656</v>
+      </c>
+      <c r="J22" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
         <v>198</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22">
-        <v>3010649822</v>
-      </c>
-      <c r="F22">
-        <v>1767</v>
-      </c>
-      <c r="G22">
-        <v>910</v>
-      </c>
-      <c r="H22" t="s">
-        <v>200</v>
-      </c>
-      <c r="K22" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>213</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
       <c r="C23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23">
+        <v>3010649822</v>
+      </c>
+      <c r="F23">
+        <v>1767</v>
+      </c>
+      <c r="G23">
+        <v>910</v>
+      </c>
+      <c r="H23" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
         <v>214</v>
       </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23">
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24">
         <v>18535471</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>13654</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>9725</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>215</v>
       </c>
-      <c r="K23" t="s">
-        <v>712</v>
-      </c>
-      <c r="L23" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
+      <c r="I24" t="s">
+        <v>653</v>
+      </c>
+      <c r="J24" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
         <v>216</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24">
-        <v>7.35234371452608E+17</v>
-      </c>
-      <c r="F24">
-        <v>311</v>
-      </c>
-      <c r="G24">
-        <v>186</v>
-      </c>
-      <c r="H24" t="s">
-        <v>218</v>
-      </c>
-      <c r="K24" t="s">
-        <v>119</v>
-      </c>
-      <c r="L24" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>219</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
         <v>64</v>
       </c>
       <c r="E25">
-        <v>541076667</v>
+        <v>7.35234371452608E+17</v>
       </c>
       <c r="F25">
-        <v>2781</v>
+        <v>311</v>
       </c>
       <c r="G25">
-        <v>1859</v>
+        <v>186</v>
       </c>
       <c r="H25" t="s">
-        <v>221</v>
-      </c>
-      <c r="K25" t="s">
-        <v>124</v>
-      </c>
-      <c r="L25" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>218</v>
+      </c>
+      <c r="I25" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26">
-        <v>2360597707</v>
+        <v>541076667</v>
       </c>
       <c r="F26">
-        <v>1699</v>
+        <v>2781</v>
       </c>
       <c r="G26">
-        <v>40</v>
+        <v>1859</v>
       </c>
       <c r="H26" t="s">
-        <v>224</v>
-      </c>
-      <c r="K26" t="s">
+        <v>221</v>
+      </c>
+      <c r="I26" t="s">
         <v>124</v>
       </c>
-      <c r="L26" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="J26" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E27">
-        <v>2607714328</v>
+        <v>2360597707</v>
       </c>
       <c r="F27">
-        <v>802</v>
+        <v>1699</v>
       </c>
       <c r="G27">
-        <v>615</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>227</v>
-      </c>
-      <c r="K27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>224</v>
+      </c>
+      <c r="I27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>229</v>
+      <c r="C28" t="s">
+        <v>226</v>
       </c>
       <c r="D28" t="s">
         <v>64</v>
       </c>
       <c r="E28">
-        <v>3074568764</v>
+        <v>2607714328</v>
       </c>
       <c r="F28">
-        <v>1192</v>
+        <v>802</v>
       </c>
       <c r="G28">
-        <v>1372</v>
+        <v>615</v>
       </c>
       <c r="H28" t="s">
-        <v>230</v>
-      </c>
-      <c r="K28" t="s">
-        <v>124</v>
-      </c>
-      <c r="L28" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>227</v>
+      </c>
+      <c r="I28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
-      <c r="C29" t="s">
-        <v>232</v>
+      <c r="C29" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="D29" t="s">
         <v>64</v>
       </c>
       <c r="E29">
-        <v>541076667</v>
+        <v>3074568764</v>
       </c>
       <c r="F29">
-        <v>2781</v>
+        <v>1192</v>
       </c>
       <c r="G29">
-        <v>1859</v>
+        <v>1372</v>
       </c>
       <c r="H29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>230</v>
+      </c>
+      <c r="I29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>229</v>
+      <c r="C30" t="s">
+        <v>232</v>
       </c>
       <c r="D30" t="s">
         <v>64</v>
       </c>
       <c r="E30">
-        <v>253518982</v>
+        <v>541076667</v>
       </c>
       <c r="F30">
-        <v>92028</v>
+        <v>2781</v>
       </c>
       <c r="G30">
-        <v>992</v>
+        <v>1859</v>
       </c>
       <c r="H30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31" t="s">
-        <v>237</v>
+      <c r="C31" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
       </c>
       <c r="E31">
-        <v>541076667</v>
+        <v>253518982</v>
       </c>
       <c r="F31">
-        <v>2781</v>
+        <v>92028</v>
       </c>
       <c r="G31">
-        <v>1859</v>
+        <v>992</v>
       </c>
       <c r="H31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D32" t="s">
         <v>64</v>
       </c>
       <c r="E32">
-        <v>7.35234371452608E+17</v>
+        <v>541076667</v>
       </c>
       <c r="F32">
-        <v>311</v>
+        <v>2781</v>
       </c>
       <c r="G32">
-        <v>186</v>
+        <v>1859</v>
       </c>
       <c r="H32" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D33" t="s">
         <v>64</v>
       </c>
       <c r="E33">
-        <v>378734845</v>
+        <v>7.35234371452608E+17</v>
       </c>
       <c r="F33">
-        <v>2516</v>
+        <v>311</v>
       </c>
       <c r="G33">
-        <v>1841</v>
+        <v>186</v>
       </c>
       <c r="H33" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D34" t="s">
         <v>64</v>
       </c>
       <c r="E34">
-        <v>541076667</v>
+        <v>378734845</v>
       </c>
       <c r="F34">
-        <v>2781</v>
+        <v>2516</v>
       </c>
       <c r="G34">
-        <v>1859</v>
+        <v>1841</v>
       </c>
       <c r="H34" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="D35" t="s">
         <v>64</v>
@@ -3892,2893 +3750,2919 @@
         <v>1859</v>
       </c>
       <c r="H35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="D36" t="s">
         <v>64</v>
       </c>
       <c r="E36">
-        <v>2361764839</v>
+        <v>541076667</v>
       </c>
       <c r="F36">
-        <v>2181</v>
+        <v>2781</v>
       </c>
       <c r="G36">
-        <v>890</v>
+        <v>1859</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D37" t="s">
         <v>64</v>
       </c>
       <c r="E37">
-        <v>541076667</v>
+        <v>2361764839</v>
       </c>
       <c r="F37">
-        <v>2781</v>
+        <v>2181</v>
       </c>
       <c r="G37">
-        <v>1859</v>
+        <v>890</v>
       </c>
       <c r="H37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>331</v>
+        <v>253</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="D38" t="s">
         <v>64</v>
       </c>
       <c r="E38">
-        <v>88899123</v>
+        <v>541076667</v>
       </c>
       <c r="F38">
-        <v>48676</v>
+        <v>2781</v>
       </c>
       <c r="G38">
-        <v>2180</v>
+        <v>1859</v>
       </c>
       <c r="H38" t="s">
-        <v>333</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>673</v>
+        <v>331</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>674</v>
+        <v>332</v>
       </c>
       <c r="D39" t="s">
         <v>64</v>
       </c>
       <c r="E39">
-        <v>187674446</v>
+        <v>88899123</v>
       </c>
       <c r="F39">
-        <v>2299</v>
+        <v>48676</v>
       </c>
       <c r="G39">
-        <v>829</v>
+        <v>2180</v>
       </c>
       <c r="H39" t="s">
-        <v>675</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>676</v>
+        <v>614</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>677</v>
+        <v>615</v>
       </c>
       <c r="D40" t="s">
         <v>64</v>
       </c>
       <c r="E40">
-        <v>7.1538714939520998E+17</v>
+        <v>187674446</v>
       </c>
       <c r="F40">
-        <v>908</v>
+        <v>2299</v>
       </c>
       <c r="G40">
-        <v>686</v>
+        <v>829</v>
       </c>
       <c r="H40" t="s">
-        <v>678</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>679</v>
+        <v>617</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="D41" t="s">
         <v>64</v>
       </c>
       <c r="E41">
-        <v>198337759</v>
+        <v>7.1538714939520998E+17</v>
       </c>
       <c r="F41">
-        <v>33439</v>
+        <v>908</v>
       </c>
       <c r="G41">
-        <v>27547</v>
+        <v>686</v>
       </c>
       <c r="H41" t="s">
-        <v>681</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>682</v>
+        <v>620</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>683</v>
+        <v>621</v>
       </c>
       <c r="D42" t="s">
         <v>64</v>
       </c>
       <c r="E42">
-        <v>1622175919</v>
+        <v>198337759</v>
       </c>
       <c r="F42">
-        <v>1683</v>
+        <v>33439</v>
       </c>
       <c r="G42">
-        <v>1062</v>
+        <v>27547</v>
       </c>
       <c r="H42" t="s">
-        <v>684</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>337</v>
+        <v>623</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>338</v>
+        <v>624</v>
       </c>
       <c r="D43" t="s">
         <v>64</v>
       </c>
       <c r="E43">
-        <v>7.0218678536375898E+17</v>
+        <v>1622175919</v>
       </c>
       <c r="F43">
-        <v>1709</v>
+        <v>1683</v>
       </c>
       <c r="G43">
-        <v>3367</v>
+        <v>1062</v>
       </c>
       <c r="H43" t="s">
-        <v>339</v>
+        <v>625</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D44" t="s">
         <v>64</v>
       </c>
       <c r="E44">
-        <v>7.35234371452608E+17</v>
+        <v>7.0218678536375898E+17</v>
       </c>
       <c r="F44">
-        <v>311</v>
+        <v>1709</v>
       </c>
       <c r="G44">
-        <v>186</v>
+        <v>3367</v>
       </c>
       <c r="H44" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D45" t="s">
         <v>64</v>
       </c>
       <c r="E45">
-        <v>418395156</v>
+        <v>7.35234371452608E+17</v>
       </c>
       <c r="F45">
-        <v>12023</v>
+        <v>311</v>
       </c>
       <c r="G45">
-        <v>887</v>
+        <v>186</v>
       </c>
       <c r="H45" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D46" t="s">
         <v>64</v>
       </c>
       <c r="E46">
-        <v>1955763487</v>
+        <v>418395156</v>
       </c>
       <c r="F46">
-        <v>2577</v>
+        <v>12023</v>
       </c>
       <c r="G46">
-        <v>497</v>
+        <v>887</v>
       </c>
       <c r="H46" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D47" t="s">
         <v>64</v>
       </c>
       <c r="E47">
-        <v>7.2484959477398694E+17</v>
+        <v>1955763487</v>
       </c>
       <c r="F47">
-        <v>418</v>
+        <v>2577</v>
       </c>
       <c r="G47">
-        <v>103</v>
+        <v>497</v>
       </c>
       <c r="H47" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D48" t="s">
         <v>64</v>
       </c>
       <c r="E48">
-        <v>2655320794</v>
+        <v>7.2484959477398694E+17</v>
       </c>
       <c r="F48">
-        <v>727</v>
+        <v>418</v>
       </c>
       <c r="G48">
-        <v>561</v>
+        <v>103</v>
       </c>
       <c r="H48" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>685</v>
+        <v>349</v>
       </c>
       <c r="B49">
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>674</v>
+        <v>350</v>
       </c>
       <c r="D49" t="s">
         <v>64</v>
       </c>
       <c r="E49">
-        <v>507647984</v>
+        <v>2655320794</v>
       </c>
       <c r="F49">
-        <v>1232</v>
+        <v>727</v>
       </c>
       <c r="G49">
-        <v>921</v>
+        <v>561</v>
       </c>
       <c r="H49" t="s">
-        <v>686</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>355</v>
+        <v>626</v>
       </c>
       <c r="B50">
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>356</v>
+        <v>615</v>
       </c>
       <c r="D50" t="s">
         <v>64</v>
       </c>
       <c r="E50">
-        <v>88899123</v>
+        <v>507647984</v>
       </c>
       <c r="F50">
-        <v>48676</v>
+        <v>1232</v>
       </c>
       <c r="G50">
-        <v>2180</v>
+        <v>921</v>
       </c>
       <c r="H50" t="s">
-        <v>357</v>
+        <v>627</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B51">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E51">
-        <v>2877141776</v>
+        <v>88899123</v>
       </c>
       <c r="F51">
-        <v>3201</v>
+        <v>48676</v>
       </c>
       <c r="G51">
-        <v>3433</v>
+        <v>2180</v>
       </c>
       <c r="H51" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B52">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E52">
-        <v>3507908480</v>
+        <v>2877141776</v>
       </c>
       <c r="F52">
-        <v>8081</v>
+        <v>3201</v>
       </c>
       <c r="G52">
-        <v>657</v>
+        <v>3433</v>
       </c>
       <c r="H52" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B53">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D53" t="s">
         <v>64</v>
       </c>
       <c r="E53">
-        <v>237953524</v>
+        <v>3507908480</v>
       </c>
       <c r="F53">
-        <v>4276</v>
+        <v>8081</v>
       </c>
       <c r="G53">
-        <v>3051</v>
+        <v>657</v>
       </c>
       <c r="H53" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D54" t="s">
         <v>64</v>
       </c>
       <c r="E54">
-        <v>2218364912</v>
+        <v>237953524</v>
       </c>
       <c r="F54">
-        <v>3272</v>
+        <v>4276</v>
       </c>
       <c r="G54">
-        <v>3452</v>
+        <v>3051</v>
       </c>
       <c r="H54" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B55">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D55" t="s">
         <v>64</v>
       </c>
       <c r="E55">
-        <v>16572645</v>
+        <v>2218364912</v>
       </c>
       <c r="F55">
-        <v>5483</v>
+        <v>3272</v>
       </c>
       <c r="G55">
-        <v>1168</v>
+        <v>3452</v>
       </c>
       <c r="H55" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D56" t="s">
         <v>64</v>
       </c>
       <c r="E56">
-        <v>470708999</v>
+        <v>16572645</v>
       </c>
       <c r="F56">
-        <v>850</v>
+        <v>5483</v>
       </c>
       <c r="G56">
-        <v>851</v>
+        <v>1168</v>
       </c>
       <c r="H56" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E57">
-        <v>784890702</v>
+        <v>470708999</v>
       </c>
       <c r="F57">
-        <v>23316</v>
+        <v>850</v>
       </c>
       <c r="G57">
-        <v>25524</v>
+        <v>851</v>
       </c>
       <c r="H57" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E58">
-        <v>1085359494</v>
+        <v>784890702</v>
       </c>
       <c r="F58">
-        <v>3861</v>
+        <v>23316</v>
       </c>
       <c r="G58">
-        <v>1275</v>
+        <v>25524</v>
       </c>
       <c r="H58" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B59">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D59" t="s">
         <v>64</v>
       </c>
       <c r="E59">
-        <v>756823358</v>
+        <v>1085359494</v>
       </c>
       <c r="F59">
-        <v>1282</v>
+        <v>3861</v>
       </c>
       <c r="G59">
-        <v>790</v>
+        <v>1275</v>
       </c>
       <c r="H59" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>687</v>
+        <v>379</v>
       </c>
       <c r="B60">
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>688</v>
+        <v>380</v>
       </c>
       <c r="D60" t="s">
         <v>64</v>
       </c>
       <c r="E60">
-        <v>610535390</v>
+        <v>756823358</v>
       </c>
       <c r="F60">
-        <v>341</v>
+        <v>1282</v>
       </c>
       <c r="G60">
-        <v>309</v>
+        <v>790</v>
       </c>
       <c r="H60" t="s">
-        <v>689</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>391</v>
+        <v>628</v>
       </c>
       <c r="B61">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>392</v>
+        <v>629</v>
       </c>
       <c r="D61" t="s">
         <v>64</v>
       </c>
       <c r="E61">
-        <v>329771366</v>
+        <v>610535390</v>
       </c>
       <c r="F61">
-        <v>3907</v>
+        <v>341</v>
       </c>
       <c r="G61">
-        <v>744</v>
+        <v>309</v>
       </c>
       <c r="H61" t="s">
-        <v>393</v>
+        <v>630</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E62">
-        <v>211429450</v>
+        <v>329771366</v>
       </c>
       <c r="F62">
-        <v>9345</v>
+        <v>3907</v>
       </c>
       <c r="G62">
-        <v>420</v>
+        <v>744</v>
       </c>
       <c r="H62" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B63">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E63">
-        <v>7.4167427612688294E+17</v>
+        <v>211429450</v>
       </c>
       <c r="F63">
-        <v>54</v>
+        <v>9345</v>
       </c>
       <c r="G63">
-        <v>21</v>
+        <v>420</v>
       </c>
       <c r="H63" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B64">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D64" t="s">
         <v>64</v>
       </c>
       <c r="E64">
-        <v>770254346</v>
+        <v>7.4167427612688294E+17</v>
       </c>
       <c r="F64">
-        <v>21950</v>
+        <v>54</v>
       </c>
       <c r="G64">
-        <v>495</v>
+        <v>21</v>
       </c>
       <c r="H64" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D65" t="s">
         <v>64</v>
       </c>
       <c r="E65">
-        <v>382565521</v>
+        <v>770254346</v>
       </c>
       <c r="F65">
-        <v>470</v>
+        <v>21950</v>
       </c>
       <c r="G65">
-        <v>382</v>
+        <v>495</v>
       </c>
       <c r="H65" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D66" t="s">
         <v>64</v>
       </c>
       <c r="E66">
-        <v>7.3811794556658406E+17</v>
+        <v>382565521</v>
       </c>
       <c r="F66">
-        <v>253</v>
+        <v>470</v>
       </c>
       <c r="G66">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="H66" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D67" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E67">
-        <v>3160404205</v>
+        <v>7.3811794556658406E+17</v>
       </c>
       <c r="F67">
-        <v>10067</v>
+        <v>253</v>
       </c>
       <c r="G67">
-        <v>4548</v>
+        <v>339</v>
       </c>
       <c r="H67" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E68">
-        <v>386850645</v>
+        <v>3160404205</v>
       </c>
       <c r="F68">
-        <v>1152</v>
+        <v>10067</v>
       </c>
       <c r="G68">
-        <v>893</v>
+        <v>4548</v>
       </c>
       <c r="H68" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D69" t="s">
         <v>64</v>
       </c>
       <c r="E69">
-        <v>4795366410</v>
+        <v>386850645</v>
       </c>
       <c r="F69">
-        <v>326</v>
+        <v>1152</v>
       </c>
       <c r="G69">
-        <v>320</v>
+        <v>893</v>
       </c>
       <c r="H69" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D70" t="s">
         <v>64</v>
       </c>
       <c r="E70">
-        <v>190328619</v>
+        <v>4795366410</v>
       </c>
       <c r="F70">
-        <v>2153</v>
+        <v>326</v>
       </c>
       <c r="G70">
-        <v>735</v>
+        <v>320</v>
       </c>
       <c r="H70" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E71">
-        <v>2281993381</v>
+        <v>190328619</v>
       </c>
       <c r="F71">
-        <v>22244</v>
+        <v>2153</v>
       </c>
       <c r="G71">
-        <v>16562</v>
+        <v>735</v>
       </c>
       <c r="H71" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E72">
-        <v>2761637955</v>
+        <v>2281993381</v>
       </c>
       <c r="F72">
-        <v>2448</v>
+        <v>22244</v>
       </c>
       <c r="G72">
-        <v>1382</v>
+        <v>16562</v>
       </c>
       <c r="H72" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>690</v>
+        <v>415</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>691</v>
+        <v>416</v>
       </c>
       <c r="D73" t="s">
         <v>64</v>
       </c>
       <c r="E73">
-        <v>770254346</v>
+        <v>2761637955</v>
       </c>
       <c r="F73">
-        <v>21950</v>
+        <v>2448</v>
       </c>
       <c r="G73">
-        <v>495</v>
+        <v>1382</v>
       </c>
       <c r="H73" t="s">
-        <v>692</v>
+        <v>417</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>430</v>
+        <v>631</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>431</v>
+        <v>632</v>
       </c>
       <c r="D74" t="s">
         <v>64</v>
       </c>
       <c r="E74">
-        <v>2185029404</v>
+        <v>770254346</v>
       </c>
       <c r="F74">
-        <v>328</v>
+        <v>21950</v>
       </c>
       <c r="G74">
-        <v>126</v>
+        <v>495</v>
       </c>
       <c r="H74" t="s">
-        <v>432</v>
+        <v>633</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E75">
-        <v>3035799930</v>
+        <v>2185029404</v>
       </c>
       <c r="F75">
-        <v>704</v>
+        <v>328</v>
       </c>
       <c r="G75">
-        <v>1548</v>
+        <v>126</v>
       </c>
       <c r="H75" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="D76" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E76">
-        <v>16983098</v>
+        <v>3035799930</v>
       </c>
       <c r="F76">
-        <v>18234</v>
+        <v>704</v>
       </c>
       <c r="G76">
-        <v>10735</v>
+        <v>1548</v>
       </c>
       <c r="H76" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="D77" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E77">
-        <v>2159412348</v>
+        <v>16983098</v>
       </c>
       <c r="F77">
-        <v>450</v>
+        <v>18234</v>
       </c>
       <c r="G77">
-        <v>369</v>
+        <v>10735</v>
       </c>
       <c r="H77" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="D78" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E78">
-        <v>2902277768</v>
+        <v>2159412348</v>
       </c>
       <c r="F78">
-        <v>571</v>
+        <v>450</v>
       </c>
       <c r="G78">
-        <v>659</v>
+        <v>369</v>
       </c>
       <c r="H78" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="D79" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E79">
-        <v>2445826134</v>
+        <v>2902277768</v>
       </c>
       <c r="F79">
-        <v>2166</v>
+        <v>571</v>
       </c>
       <c r="G79">
-        <v>741</v>
+        <v>659</v>
       </c>
       <c r="H79" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E80">
-        <v>344572486</v>
+        <v>2445826134</v>
       </c>
       <c r="F80">
-        <v>10507</v>
+        <v>2166</v>
       </c>
       <c r="G80">
-        <v>4755</v>
+        <v>741</v>
       </c>
       <c r="H80" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B81">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="D81" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E81">
-        <v>604101237</v>
+        <v>344572486</v>
       </c>
       <c r="F81">
-        <v>3132</v>
+        <v>10507</v>
       </c>
       <c r="G81">
-        <v>1318</v>
+        <v>4755</v>
       </c>
       <c r="H81" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E82">
-        <v>1480795956</v>
+        <v>604101237</v>
       </c>
       <c r="F82">
-        <v>15088</v>
+        <v>3132</v>
       </c>
       <c r="G82">
-        <v>202</v>
+        <v>1318</v>
       </c>
       <c r="H82" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="D83" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="E83">
-        <v>1196599460</v>
+        <v>1480795956</v>
       </c>
       <c r="F83">
-        <v>819</v>
+        <v>15088</v>
       </c>
       <c r="G83">
-        <v>321</v>
+        <v>202</v>
       </c>
       <c r="H83" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="D84" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E84">
-        <v>3321592382</v>
+        <v>1196599460</v>
       </c>
       <c r="F84">
-        <v>880</v>
+        <v>819</v>
       </c>
       <c r="G84">
-        <v>666</v>
+        <v>321</v>
       </c>
       <c r="H84" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D85" t="s">
         <v>88</v>
       </c>
       <c r="E85">
-        <v>2382855553</v>
+        <v>3321592382</v>
       </c>
       <c r="F85">
-        <v>1020</v>
+        <v>880</v>
       </c>
       <c r="G85">
-        <v>1060</v>
+        <v>666</v>
       </c>
       <c r="H85" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E86">
-        <v>7.2512875729245696E+17</v>
+        <v>2382855553</v>
       </c>
       <c r="F86">
-        <v>59</v>
+        <v>1020</v>
       </c>
       <c r="G86">
-        <v>58</v>
+        <v>1060</v>
       </c>
       <c r="H86" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="D87" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E87">
-        <v>2902277768</v>
+        <v>7.2512875729245696E+17</v>
       </c>
       <c r="F87">
-        <v>571</v>
+        <v>59</v>
       </c>
       <c r="G87">
-        <v>659</v>
+        <v>58</v>
       </c>
       <c r="H87" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="D88" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E88">
-        <v>2837240984</v>
+        <v>2902277768</v>
       </c>
       <c r="F88">
-        <v>1036</v>
+        <v>571</v>
       </c>
       <c r="G88">
-        <v>511</v>
+        <v>659</v>
       </c>
       <c r="H88" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>478</v>
+        <v>416</v>
       </c>
       <c r="D89" t="s">
         <v>64</v>
       </c>
       <c r="E89">
-        <v>3986492492</v>
+        <v>2837240984</v>
       </c>
       <c r="F89">
-        <v>950</v>
+        <v>1036</v>
       </c>
       <c r="G89">
-        <v>633</v>
+        <v>511</v>
       </c>
       <c r="H89" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="B90">
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="D90" t="s">
-        <v>482</v>
+        <v>64</v>
       </c>
       <c r="E90">
-        <v>154239059</v>
+        <v>3986492492</v>
       </c>
       <c r="F90">
-        <v>1211</v>
+        <v>950</v>
       </c>
       <c r="G90">
-        <v>555</v>
+        <v>633</v>
       </c>
       <c r="H90" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="D91" t="s">
-        <v>90</v>
+        <v>467</v>
       </c>
       <c r="E91">
-        <v>1573693694</v>
+        <v>154239059</v>
       </c>
       <c r="F91">
-        <v>67571</v>
+        <v>1211</v>
       </c>
       <c r="G91">
-        <v>55693</v>
+        <v>555</v>
       </c>
       <c r="H91" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="D92" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="E92">
-        <v>1002557064</v>
+        <v>1573693694</v>
       </c>
       <c r="F92">
-        <v>321</v>
+        <v>67571</v>
       </c>
       <c r="G92">
-        <v>382</v>
+        <v>55693</v>
       </c>
       <c r="H92" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="D93" t="s">
         <v>64</v>
       </c>
       <c r="E93">
-        <v>2502372265</v>
+        <v>1002557064</v>
       </c>
       <c r="F93">
-        <v>2417</v>
+        <v>321</v>
       </c>
       <c r="G93">
-        <v>1316</v>
+        <v>382</v>
       </c>
       <c r="H93" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="D94" t="s">
         <v>64</v>
       </c>
       <c r="E94">
-        <v>7.0411697053107405E+17</v>
+        <v>2502372265</v>
       </c>
       <c r="F94">
-        <v>257</v>
+        <v>2417</v>
       </c>
       <c r="G94">
-        <v>364</v>
+        <v>1316</v>
       </c>
       <c r="H94" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="B95">
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="D95" t="s">
         <v>64</v>
       </c>
       <c r="E95">
-        <v>333836399</v>
+        <v>7.0411697053107405E+17</v>
       </c>
       <c r="F95">
-        <v>2479</v>
+        <v>257</v>
       </c>
       <c r="G95">
-        <v>988</v>
+        <v>364</v>
       </c>
       <c r="H95" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="D96" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E96">
-        <v>4588283553</v>
+        <v>333836399</v>
       </c>
       <c r="F96">
-        <v>14027</v>
+        <v>2479</v>
       </c>
       <c r="G96">
-        <v>3857</v>
+        <v>988</v>
       </c>
       <c r="H96" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="D97" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E97">
-        <v>1270357184</v>
+        <v>4588283553</v>
       </c>
       <c r="F97">
-        <v>493</v>
+        <v>14027</v>
       </c>
       <c r="G97">
-        <v>693</v>
+        <v>3857</v>
       </c>
       <c r="H97" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="D98" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E98">
-        <v>4532238923</v>
+        <v>1270357184</v>
       </c>
       <c r="F98">
-        <v>1262</v>
+        <v>493</v>
       </c>
       <c r="G98">
-        <v>1998</v>
+        <v>693</v>
       </c>
       <c r="H98" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="D99" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E99">
-        <v>34025665</v>
+        <v>4532238923</v>
       </c>
       <c r="F99">
-        <v>29</v>
+        <v>1262</v>
       </c>
       <c r="G99">
-        <v>137</v>
+        <v>1998</v>
       </c>
       <c r="H99" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="D100" t="s">
         <v>64</v>
       </c>
       <c r="E100">
-        <v>412034789</v>
+        <v>34025665</v>
       </c>
       <c r="F100">
-        <v>5559</v>
+        <v>29</v>
       </c>
       <c r="G100">
-        <v>638</v>
+        <v>137</v>
       </c>
       <c r="H100" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>693</v>
+        <v>496</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>694</v>
+        <v>497</v>
       </c>
       <c r="D101" t="s">
         <v>64</v>
       </c>
       <c r="E101">
-        <v>2413297282</v>
+        <v>412034789</v>
       </c>
       <c r="F101">
-        <v>225</v>
+        <v>5559</v>
       </c>
       <c r="G101">
-        <v>453</v>
+        <v>638</v>
       </c>
       <c r="H101" t="s">
-        <v>695</v>
+        <v>498</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>523</v>
+        <v>634</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>524</v>
+        <v>635</v>
       </c>
       <c r="D102" t="s">
         <v>64</v>
       </c>
       <c r="E102">
-        <v>3831434953</v>
+        <v>2413297282</v>
       </c>
       <c r="F102">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="G102">
-        <v>85</v>
+        <v>453</v>
       </c>
       <c r="H102" t="s">
-        <v>525</v>
+        <v>636</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="D103" t="s">
         <v>64</v>
       </c>
       <c r="E103">
-        <v>417680262</v>
+        <v>3831434953</v>
       </c>
       <c r="F103">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="G103">
-        <v>505</v>
+        <v>85</v>
       </c>
       <c r="H103" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="B104">
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="D104" t="s">
         <v>64</v>
       </c>
       <c r="E104">
-        <v>1517557530</v>
+        <v>417680262</v>
       </c>
       <c r="F104">
-        <v>1677</v>
+        <v>301</v>
       </c>
       <c r="G104">
-        <v>990</v>
+        <v>505</v>
       </c>
       <c r="H104" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>428</v>
+        <v>506</v>
       </c>
       <c r="D105" t="s">
         <v>64</v>
       </c>
       <c r="E105">
-        <v>2248782146</v>
+        <v>1517557530</v>
       </c>
       <c r="F105">
-        <v>6339</v>
+        <v>1677</v>
       </c>
       <c r="G105">
-        <v>5931</v>
+        <v>990</v>
       </c>
       <c r="H105" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>537</v>
+        <v>416</v>
       </c>
       <c r="D106" t="s">
         <v>64</v>
       </c>
       <c r="E106">
-        <v>3087688539</v>
+        <v>2248782146</v>
       </c>
       <c r="F106">
-        <v>631</v>
+        <v>6339</v>
       </c>
       <c r="G106">
-        <v>98</v>
+        <v>5931</v>
       </c>
       <c r="H106" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="B107">
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="D107" t="s">
         <v>64</v>
       </c>
       <c r="E107">
-        <v>326904739</v>
+        <v>3087688539</v>
       </c>
       <c r="F107">
-        <v>5060</v>
+        <v>631</v>
       </c>
       <c r="G107">
-        <v>2461</v>
+        <v>98</v>
       </c>
       <c r="H107" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="D108" t="s">
         <v>64</v>
       </c>
       <c r="E108">
-        <v>3316981875</v>
+        <v>326904739</v>
       </c>
       <c r="F108">
-        <v>3948</v>
+        <v>5060</v>
       </c>
       <c r="G108">
-        <v>2836</v>
+        <v>2461</v>
       </c>
       <c r="H108" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="B109">
         <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="D109" t="s">
         <v>64</v>
       </c>
       <c r="E109">
-        <v>84449303</v>
+        <v>3316981875</v>
       </c>
       <c r="F109">
-        <v>316</v>
+        <v>3948</v>
       </c>
       <c r="G109">
-        <v>609</v>
+        <v>2836</v>
       </c>
       <c r="H109" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="B110">
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="D110" t="s">
         <v>64</v>
       </c>
       <c r="E110">
-        <v>567928070</v>
+        <v>84449303</v>
       </c>
       <c r="F110">
-        <v>1365</v>
+        <v>316</v>
       </c>
       <c r="G110">
-        <v>101</v>
+        <v>609</v>
       </c>
       <c r="H110" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="D111" t="s">
         <v>64</v>
       </c>
       <c r="E111">
-        <v>2940226945</v>
+        <v>567928070</v>
       </c>
       <c r="F111">
-        <v>521</v>
+        <v>1365</v>
       </c>
       <c r="G111">
-        <v>423</v>
+        <v>101</v>
       </c>
       <c r="H111" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="B112">
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>428</v>
+        <v>526</v>
       </c>
       <c r="D112" t="s">
         <v>64</v>
       </c>
       <c r="E112">
-        <v>549488088</v>
+        <v>2940226945</v>
       </c>
       <c r="F112">
-        <v>976</v>
+        <v>521</v>
       </c>
       <c r="G112">
-        <v>185</v>
+        <v>423</v>
       </c>
       <c r="H112" t="s">
-        <v>564</v>
+        <v>527</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="B113">
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>566</v>
+        <v>416</v>
       </c>
       <c r="D113" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E113">
-        <v>1270357184</v>
+        <v>549488088</v>
       </c>
       <c r="F113">
-        <v>493</v>
+        <v>976</v>
       </c>
       <c r="G113">
-        <v>693</v>
+        <v>185</v>
       </c>
       <c r="H113" t="s">
-        <v>567</v>
+        <v>529</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="D114" t="s">
         <v>88</v>
       </c>
       <c r="E114">
-        <v>2902277768</v>
+        <v>1270357184</v>
       </c>
       <c r="F114">
-        <v>571</v>
+        <v>493</v>
       </c>
       <c r="G114">
-        <v>659</v>
+        <v>693</v>
       </c>
       <c r="H114" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>696</v>
+        <v>533</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>697</v>
+        <v>534</v>
       </c>
       <c r="D115" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E115">
-        <v>2302319312</v>
+        <v>2902277768</v>
       </c>
       <c r="F115">
-        <v>724</v>
+        <v>571</v>
       </c>
       <c r="G115">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H115" t="s">
-        <v>698</v>
+        <v>535</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>577</v>
+        <v>637</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>578</v>
+        <v>638</v>
       </c>
       <c r="D116" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E116">
-        <v>300398550</v>
+        <v>2302319312</v>
       </c>
       <c r="F116">
-        <v>2309</v>
+        <v>724</v>
       </c>
       <c r="G116">
-        <v>888</v>
+        <v>660</v>
       </c>
       <c r="H116" t="s">
-        <v>579</v>
+        <v>639</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="B117">
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>584</v>
+        <v>537</v>
       </c>
       <c r="D117" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E117">
-        <v>577583449</v>
+        <v>300398550</v>
       </c>
       <c r="F117">
-        <v>7091</v>
+        <v>2309</v>
       </c>
       <c r="G117">
-        <v>5627</v>
+        <v>888</v>
       </c>
       <c r="H117" t="s">
-        <v>585</v>
+        <v>538</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>586</v>
+        <v>539</v>
       </c>
       <c r="B118">
         <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="D118" t="s">
         <v>64</v>
       </c>
       <c r="E118">
-        <v>2865094475</v>
+        <v>577583449</v>
       </c>
       <c r="F118">
-        <v>1220</v>
+        <v>7091</v>
       </c>
       <c r="G118">
-        <v>1076</v>
+        <v>5627</v>
       </c>
       <c r="H118" t="s">
-        <v>587</v>
+        <v>541</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>588</v>
+        <v>542</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>589</v>
+        <v>506</v>
       </c>
       <c r="D119" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E119">
-        <v>574208689</v>
+        <v>2865094475</v>
       </c>
       <c r="F119">
-        <v>54310</v>
+        <v>1220</v>
       </c>
       <c r="G119">
-        <v>32680</v>
+        <v>1076</v>
       </c>
       <c r="H119" t="s">
-        <v>590</v>
+        <v>543</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>592</v>
+        <v>545</v>
       </c>
       <c r="D120" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E120">
-        <v>7.0871190306179802E+17</v>
+        <v>574208689</v>
       </c>
       <c r="F120">
-        <v>26</v>
+        <v>54310</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>32680</v>
       </c>
       <c r="H120" t="s">
-        <v>593</v>
+        <v>546</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>594</v>
+        <v>547</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>595</v>
+        <v>548</v>
       </c>
       <c r="D121" t="s">
         <v>64</v>
       </c>
       <c r="E121">
-        <v>161030824</v>
+        <v>7.0871190306179802E+17</v>
       </c>
       <c r="F121">
-        <v>2896</v>
+        <v>26</v>
       </c>
       <c r="G121">
-        <v>2453</v>
+        <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>596</v>
+        <v>549</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>597</v>
+        <v>550</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>598</v>
+        <v>551</v>
       </c>
       <c r="D122" t="s">
         <v>64</v>
       </c>
       <c r="E122">
-        <v>15625804</v>
+        <v>161030824</v>
       </c>
       <c r="F122">
-        <v>85</v>
+        <v>2896</v>
       </c>
       <c r="G122">
-        <v>80</v>
+        <v>2453</v>
       </c>
       <c r="H122" t="s">
-        <v>599</v>
+        <v>552</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>699</v>
+        <v>553</v>
       </c>
       <c r="B123">
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>700</v>
+        <v>554</v>
       </c>
       <c r="D123" t="s">
         <v>64</v>
       </c>
       <c r="E123">
-        <v>4657093276</v>
+        <v>15625804</v>
       </c>
       <c r="F123">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="G123">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="H123" t="s">
-        <v>701</v>
+        <v>555</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="D124" t="s">
         <v>64</v>
       </c>
       <c r="E124">
-        <v>1612023859</v>
+        <v>4657093276</v>
       </c>
       <c r="F124">
-        <v>671</v>
+        <v>216</v>
       </c>
       <c r="G124">
-        <v>569</v>
+        <v>148</v>
       </c>
       <c r="H124" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>603</v>
+        <v>556</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>604</v>
+        <v>557</v>
       </c>
       <c r="D125" t="s">
         <v>64</v>
       </c>
       <c r="E125">
-        <v>7.35234371452608E+17</v>
+        <v>1612023859</v>
       </c>
       <c r="F125">
-        <v>311</v>
+        <v>671</v>
       </c>
       <c r="G125">
-        <v>186</v>
+        <v>569</v>
       </c>
       <c r="H125" t="s">
-        <v>605</v>
+        <v>558</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="D126" t="s">
         <v>64</v>
       </c>
       <c r="E126">
-        <v>34025665</v>
+        <v>7.35234371452608E+17</v>
       </c>
       <c r="F126">
-        <v>29</v>
+        <v>311</v>
       </c>
       <c r="G126">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="H126" t="s">
-        <v>611</v>
+        <v>561</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
       <c r="D127" t="s">
         <v>64</v>
       </c>
       <c r="E127">
-        <v>3124581427</v>
+        <v>34025665</v>
       </c>
       <c r="F127">
-        <v>1406</v>
+        <v>29</v>
       </c>
       <c r="G127">
-        <v>951</v>
+        <v>137</v>
       </c>
       <c r="H127" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="D128" t="s">
         <v>64</v>
       </c>
       <c r="E128">
-        <v>4371564436</v>
+        <v>3124581427</v>
       </c>
       <c r="F128">
-        <v>2900</v>
+        <v>1406</v>
       </c>
       <c r="G128">
-        <v>4981</v>
+        <v>951</v>
       </c>
       <c r="H128" t="s">
-        <v>617</v>
+        <v>567</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
       <c r="D129" t="s">
         <v>64</v>
       </c>
       <c r="E129">
-        <v>2927498065</v>
+        <v>4371564436</v>
       </c>
       <c r="F129">
-        <v>502</v>
+        <v>2900</v>
       </c>
       <c r="G129">
-        <v>112</v>
+        <v>4981</v>
       </c>
       <c r="H129" t="s">
-        <v>620</v>
+        <v>570</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>702</v>
+        <v>571</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>703</v>
+        <v>572</v>
       </c>
       <c r="D130" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E130">
-        <v>3075397974</v>
+        <v>2927498065</v>
       </c>
       <c r="F130">
-        <v>1960</v>
+        <v>502</v>
       </c>
       <c r="G130">
-        <v>1117</v>
+        <v>112</v>
       </c>
       <c r="H130" t="s">
-        <v>704</v>
+        <v>573</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="B131">
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>428</v>
+        <v>644</v>
       </c>
       <c r="D131" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E131">
-        <v>2316221707</v>
+        <v>3075397974</v>
       </c>
       <c r="F131">
-        <v>693</v>
+        <v>1960</v>
       </c>
       <c r="G131">
-        <v>529</v>
+        <v>1117</v>
       </c>
       <c r="H131" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>633</v>
+        <v>416</v>
       </c>
       <c r="D132" t="s">
         <v>64</v>
       </c>
       <c r="E132">
-        <v>4760989556</v>
+        <v>2316221707</v>
       </c>
       <c r="F132">
-        <v>737</v>
+        <v>693</v>
       </c>
       <c r="G132">
-        <v>1408</v>
+        <v>529</v>
       </c>
       <c r="H132" t="s">
-        <v>634</v>
+        <v>575</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>635</v>
+        <v>576</v>
       </c>
       <c r="B133">
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>636</v>
+        <v>577</v>
       </c>
       <c r="D133" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E133">
-        <v>3186364494</v>
+        <v>4760989556</v>
       </c>
       <c r="F133">
-        <v>6254</v>
+        <v>737</v>
       </c>
       <c r="G133">
-        <v>6095</v>
+        <v>1408</v>
       </c>
       <c r="H133" t="s">
-        <v>637</v>
+        <v>578</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>705</v>
+        <v>579</v>
       </c>
       <c r="B134">
         <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>706</v>
+        <v>580</v>
       </c>
       <c r="D134" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E134">
-        <v>4315758441</v>
+        <v>3186364494</v>
       </c>
       <c r="F134">
-        <v>1628</v>
+        <v>6254</v>
       </c>
       <c r="G134">
-        <v>3401</v>
+        <v>6095</v>
       </c>
       <c r="H134" t="s">
-        <v>707</v>
+        <v>581</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="B135">
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="D135" t="s">
         <v>64</v>
       </c>
       <c r="E135">
-        <v>165963861</v>
+        <v>4315758441</v>
       </c>
       <c r="F135">
-        <v>2221</v>
+        <v>1628</v>
       </c>
       <c r="G135">
-        <v>1775</v>
+        <v>3401</v>
       </c>
       <c r="H135" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>644</v>
+        <v>582</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>506</v>
+        <v>583</v>
       </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E136">
-        <v>4725964375</v>
+        <v>165963861</v>
       </c>
       <c r="F136">
-        <v>2562</v>
+        <v>2221</v>
       </c>
       <c r="G136">
-        <v>1998</v>
+        <v>1775</v>
       </c>
       <c r="H136" t="s">
-        <v>645</v>
+        <v>584</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>646</v>
+        <v>585</v>
       </c>
       <c r="B137">
         <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>647</v>
+        <v>491</v>
       </c>
       <c r="D137" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E137">
-        <v>88558957</v>
+        <v>4725964375</v>
       </c>
       <c r="F137">
-        <v>800</v>
+        <v>2562</v>
       </c>
       <c r="G137">
-        <v>182</v>
+        <v>1998</v>
       </c>
       <c r="H137" t="s">
-        <v>648</v>
+        <v>586</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>649</v>
+        <v>587</v>
       </c>
       <c r="B138">
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="D138" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E138">
-        <v>7.2997824647793805E+17</v>
+        <v>88558957</v>
       </c>
       <c r="F138">
-        <v>15</v>
+        <v>800</v>
       </c>
       <c r="G138">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="H138" t="s">
-        <v>651</v>
+        <v>589</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>652</v>
+        <v>590</v>
       </c>
       <c r="B139">
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>653</v>
+        <v>591</v>
       </c>
       <c r="D139" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E139">
-        <v>1678813020</v>
+        <v>7.2997824647793805E+17</v>
       </c>
       <c r="F139">
-        <v>12381</v>
+        <v>15</v>
       </c>
       <c r="G139">
-        <v>1481</v>
+        <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>654</v>
+        <v>592</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>655</v>
+        <v>593</v>
       </c>
       <c r="B140">
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="D140" t="s">
         <v>64</v>
       </c>
       <c r="E140">
-        <v>285290487</v>
+        <v>1678813020</v>
       </c>
       <c r="F140">
-        <v>561</v>
+        <v>12381</v>
       </c>
       <c r="G140">
-        <v>197</v>
+        <v>1481</v>
       </c>
       <c r="H140" t="s">
-        <v>657</v>
+        <v>595</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>708</v>
+        <v>596</v>
       </c>
       <c r="B141">
         <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>709</v>
+        <v>597</v>
       </c>
       <c r="D141" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E141">
-        <v>2508331117</v>
+        <v>285290487</v>
       </c>
       <c r="F141">
-        <v>8831</v>
+        <v>561</v>
       </c>
       <c r="G141">
-        <v>8775</v>
+        <v>197</v>
       </c>
       <c r="H141" t="s">
-        <v>710</v>
+        <v>598</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="B142">
         <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="D142" t="s">
         <v>88</v>
       </c>
       <c r="E142">
-        <v>7.1780718410544704E+17</v>
+        <v>2508331117</v>
       </c>
       <c r="F142">
-        <v>2504</v>
+        <v>8831</v>
       </c>
       <c r="G142">
-        <v>4043</v>
+        <v>8775</v>
       </c>
       <c r="H142" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>661</v>
+        <v>599</v>
       </c>
       <c r="B143">
         <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="D143" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E143">
-        <v>1475013896</v>
+        <v>7.1780718410544704E+17</v>
       </c>
       <c r="F143">
-        <v>57514</v>
+        <v>2504</v>
       </c>
       <c r="G143">
-        <v>125</v>
+        <v>4043</v>
       </c>
       <c r="H143" t="s">
-        <v>663</v>
+        <v>601</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>664</v>
+        <v>602</v>
       </c>
       <c r="B144">
         <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>665</v>
+        <v>603</v>
       </c>
       <c r="D144" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E144">
-        <v>344572486</v>
+        <v>1475013896</v>
       </c>
       <c r="F144">
-        <v>10507</v>
+        <v>57514</v>
       </c>
       <c r="G144">
-        <v>4755</v>
+        <v>125</v>
       </c>
       <c r="H144" t="s">
-        <v>666</v>
+        <v>604</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>667</v>
+        <v>605</v>
       </c>
       <c r="B145">
         <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>668</v>
+        <v>606</v>
       </c>
       <c r="D145" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E145">
-        <v>7.3869747988178496E+17</v>
+        <v>344572486</v>
       </c>
       <c r="F145">
-        <v>335</v>
+        <v>10507</v>
       </c>
       <c r="G145">
-        <v>438</v>
+        <v>4755</v>
       </c>
       <c r="H145" t="s">
-        <v>669</v>
+        <v>607</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>670</v>
+        <v>608</v>
       </c>
       <c r="B146">
         <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>671</v>
+        <v>609</v>
       </c>
       <c r="D146" t="s">
         <v>64</v>
       </c>
       <c r="E146">
+        <v>7.3869747988178496E+17</v>
+      </c>
+      <c r="F146">
+        <v>335</v>
+      </c>
+      <c r="G146">
+        <v>438</v>
+      </c>
+      <c r="H146" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>611</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>612</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147">
         <v>818570478</v>
       </c>
-      <c r="F146">
+      <c r="F147">
         <v>281</v>
       </c>
-      <c r="G146">
+      <c r="G147">
         <v>180</v>
       </c>
-      <c r="H146" t="s">
-        <v>672</v>
+      <c r="H147" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -9672,4273 +9556,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H154"/>
-  <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="75.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1">
-        <v>859</v>
-      </c>
-      <c r="C1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1">
-        <v>2357088818</v>
-      </c>
-      <c r="F1">
-        <v>85884</v>
-      </c>
-      <c r="G1">
-        <v>932</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>95</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2">
-        <v>143014330</v>
-      </c>
-      <c r="F2">
-        <v>825044</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>72</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3">
-        <v>1458289514</v>
-      </c>
-      <c r="F3">
-        <v>7430</v>
-      </c>
-      <c r="G3">
-        <v>96</v>
-      </c>
-      <c r="H3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4">
-        <v>418395156</v>
-      </c>
-      <c r="F4">
-        <v>12023</v>
-      </c>
-      <c r="G4">
-        <v>887</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5">
-        <v>2634377088</v>
-      </c>
-      <c r="F5">
-        <v>67605</v>
-      </c>
-      <c r="G5">
-        <v>23419</v>
-      </c>
-      <c r="H5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6">
-        <v>2634377088</v>
-      </c>
-      <c r="F6">
-        <v>67605</v>
-      </c>
-      <c r="G6">
-        <v>23419</v>
-      </c>
-      <c r="H6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7">
-        <v>523454122</v>
-      </c>
-      <c r="F7">
-        <v>190099</v>
-      </c>
-      <c r="G7">
-        <v>35979</v>
-      </c>
-      <c r="H7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8">
-        <v>328794853</v>
-      </c>
-      <c r="F8">
-        <v>1035</v>
-      </c>
-      <c r="G8">
-        <v>385</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9">
-        <v>18369812</v>
-      </c>
-      <c r="F9">
-        <v>617783</v>
-      </c>
-      <c r="G9">
-        <v>3820</v>
-      </c>
-      <c r="H9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10">
-        <v>7.0218678536375898E+17</v>
-      </c>
-      <c r="F10">
-        <v>1709</v>
-      </c>
-      <c r="G10">
-        <v>3367</v>
-      </c>
-      <c r="H10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11">
-        <v>418395156</v>
-      </c>
-      <c r="F11">
-        <v>12023</v>
-      </c>
-      <c r="G11">
-        <v>887</v>
-      </c>
-      <c r="H11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12">
-        <v>7.0218678536375898E+17</v>
-      </c>
-      <c r="F12">
-        <v>1709</v>
-      </c>
-      <c r="G12">
-        <v>3367</v>
-      </c>
-      <c r="H12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13">
-        <v>2509174009</v>
-      </c>
-      <c r="F13">
-        <v>675</v>
-      </c>
-      <c r="G13">
-        <v>452</v>
-      </c>
-      <c r="H13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14">
-        <v>1127027322</v>
-      </c>
-      <c r="F14">
-        <v>2730</v>
-      </c>
-      <c r="G14">
-        <v>963</v>
-      </c>
-      <c r="H14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15">
-        <v>2283141744</v>
-      </c>
-      <c r="F15">
-        <v>950</v>
-      </c>
-      <c r="G15">
-        <v>193</v>
-      </c>
-      <c r="H15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16">
-        <v>7.1538714939520998E+17</v>
-      </c>
-      <c r="F16">
-        <v>908</v>
-      </c>
-      <c r="G16">
-        <v>686</v>
-      </c>
-      <c r="H16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17">
-        <v>450955272</v>
-      </c>
-      <c r="F17">
-        <v>8096</v>
-      </c>
-      <c r="G17">
-        <v>2340</v>
-      </c>
-      <c r="H17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18">
-        <v>32627702</v>
-      </c>
-      <c r="F18">
-        <v>309188</v>
-      </c>
-      <c r="G18">
-        <v>33861</v>
-      </c>
-      <c r="H18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19">
-        <v>2177303550</v>
-      </c>
-      <c r="F19">
-        <v>230</v>
-      </c>
-      <c r="G19">
-        <v>233</v>
-      </c>
-      <c r="H19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20">
-        <v>26130520</v>
-      </c>
-      <c r="F20">
-        <v>38918</v>
-      </c>
-      <c r="G20">
-        <v>448</v>
-      </c>
-      <c r="H20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21">
-        <v>261834019</v>
-      </c>
-      <c r="F21">
-        <v>1388</v>
-      </c>
-      <c r="G21">
-        <v>1153</v>
-      </c>
-      <c r="H21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22">
-        <v>784890702</v>
-      </c>
-      <c r="F22">
-        <v>23316</v>
-      </c>
-      <c r="G22">
-        <v>25524</v>
-      </c>
-      <c r="H22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>198</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23">
-        <v>3010649822</v>
-      </c>
-      <c r="F23">
-        <v>1767</v>
-      </c>
-      <c r="G23">
-        <v>910</v>
-      </c>
-      <c r="H23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>204</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24">
-        <v>436649770</v>
-      </c>
-      <c r="F24">
-        <v>729</v>
-      </c>
-      <c r="G24">
-        <v>412</v>
-      </c>
-      <c r="H24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>213</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25">
-        <v>18535471</v>
-      </c>
-      <c r="F25">
-        <v>13654</v>
-      </c>
-      <c r="G25">
-        <v>9725</v>
-      </c>
-      <c r="H25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>216</v>
-      </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26">
-        <v>7.35234371452608E+17</v>
-      </c>
-      <c r="F26">
-        <v>311</v>
-      </c>
-      <c r="G26">
-        <v>186</v>
-      </c>
-      <c r="H26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>219</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>220</v>
-      </c>
-      <c r="D27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27">
-        <v>541076667</v>
-      </c>
-      <c r="F27">
-        <v>2781</v>
-      </c>
-      <c r="G27">
-        <v>1859</v>
-      </c>
-      <c r="H27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28">
-        <v>2360597707</v>
-      </c>
-      <c r="F28">
-        <v>1699</v>
-      </c>
-      <c r="G28">
-        <v>40</v>
-      </c>
-      <c r="H28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>226</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29">
-        <v>2607714328</v>
-      </c>
-      <c r="F29">
-        <v>802</v>
-      </c>
-      <c r="G29">
-        <v>615</v>
-      </c>
-      <c r="H29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30">
-        <v>3074568764</v>
-      </c>
-      <c r="F30">
-        <v>1192</v>
-      </c>
-      <c r="G30">
-        <v>1372</v>
-      </c>
-      <c r="H30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>232</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31">
-        <v>541076667</v>
-      </c>
-      <c r="F31">
-        <v>2781</v>
-      </c>
-      <c r="G31">
-        <v>1859</v>
-      </c>
-      <c r="H31" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>234</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32">
-        <v>253518982</v>
-      </c>
-      <c r="F32">
-        <v>92028</v>
-      </c>
-      <c r="G32">
-        <v>992</v>
-      </c>
-      <c r="H32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>236</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>237</v>
-      </c>
-      <c r="D33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33">
-        <v>541076667</v>
-      </c>
-      <c r="F33">
-        <v>2781</v>
-      </c>
-      <c r="G33">
-        <v>1859</v>
-      </c>
-      <c r="H33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>239</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>240</v>
-      </c>
-      <c r="D34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34">
-        <v>7.35234371452608E+17</v>
-      </c>
-      <c r="F34">
-        <v>311</v>
-      </c>
-      <c r="G34">
-        <v>186</v>
-      </c>
-      <c r="H34" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>242</v>
-      </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>243</v>
-      </c>
-      <c r="D35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35">
-        <v>378734845</v>
-      </c>
-      <c r="F35">
-        <v>2516</v>
-      </c>
-      <c r="G35">
-        <v>1841</v>
-      </c>
-      <c r="H35" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>248</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>220</v>
-      </c>
-      <c r="D36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36">
-        <v>541076667</v>
-      </c>
-      <c r="F36">
-        <v>2781</v>
-      </c>
-      <c r="G36">
-        <v>1859</v>
-      </c>
-      <c r="H36" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>253</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>232</v>
-      </c>
-      <c r="D37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37">
-        <v>541076667</v>
-      </c>
-      <c r="F37">
-        <v>2781</v>
-      </c>
-      <c r="G37">
-        <v>1859</v>
-      </c>
-      <c r="H37" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>255</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>256</v>
-      </c>
-      <c r="D38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38">
-        <v>3160404205</v>
-      </c>
-      <c r="F38">
-        <v>10067</v>
-      </c>
-      <c r="G38">
-        <v>4548</v>
-      </c>
-      <c r="H38" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>331</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>332</v>
-      </c>
-      <c r="D39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39">
-        <v>88899123</v>
-      </c>
-      <c r="F39">
-        <v>48676</v>
-      </c>
-      <c r="G39">
-        <v>2180</v>
-      </c>
-      <c r="H39" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>334</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>335</v>
-      </c>
-      <c r="D40" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40">
-        <v>177556998</v>
-      </c>
-      <c r="F40">
-        <v>1101</v>
-      </c>
-      <c r="G40">
-        <v>611</v>
-      </c>
-      <c r="H40" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>337</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>338</v>
-      </c>
-      <c r="D41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41">
-        <v>7.0218678536375898E+17</v>
-      </c>
-      <c r="F41">
-        <v>1709</v>
-      </c>
-      <c r="G41">
-        <v>3367</v>
-      </c>
-      <c r="H41" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>340</v>
-      </c>
-      <c r="B42">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>341</v>
-      </c>
-      <c r="D42" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42">
-        <v>7.35234371452608E+17</v>
-      </c>
-      <c r="F42">
-        <v>311</v>
-      </c>
-      <c r="G42">
-        <v>186</v>
-      </c>
-      <c r="H42" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>343</v>
-      </c>
-      <c r="B43">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>344</v>
-      </c>
-      <c r="D43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43">
-        <v>418395156</v>
-      </c>
-      <c r="F43">
-        <v>12023</v>
-      </c>
-      <c r="G43">
-        <v>887</v>
-      </c>
-      <c r="H43" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>346</v>
-      </c>
-      <c r="B44">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
-        <v>347</v>
-      </c>
-      <c r="D44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44">
-        <v>1955763487</v>
-      </c>
-      <c r="F44">
-        <v>2577</v>
-      </c>
-      <c r="G44">
-        <v>497</v>
-      </c>
-      <c r="H44" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>349</v>
-      </c>
-      <c r="B45">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>350</v>
-      </c>
-      <c r="D45" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45">
-        <v>7.2484959477398694E+17</v>
-      </c>
-      <c r="F45">
-        <v>418</v>
-      </c>
-      <c r="G45">
-        <v>103</v>
-      </c>
-      <c r="H45" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>352</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>353</v>
-      </c>
-      <c r="D46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46">
-        <v>2655320794</v>
-      </c>
-      <c r="F46">
-        <v>727</v>
-      </c>
-      <c r="G46">
-        <v>561</v>
-      </c>
-      <c r="H46" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>355</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>356</v>
-      </c>
-      <c r="D47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47">
-        <v>88899123</v>
-      </c>
-      <c r="F47">
-        <v>48676</v>
-      </c>
-      <c r="G47">
-        <v>2180</v>
-      </c>
-      <c r="H47" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>358</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>359</v>
-      </c>
-      <c r="D48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48">
-        <v>2877141776</v>
-      </c>
-      <c r="F48">
-        <v>3201</v>
-      </c>
-      <c r="G48">
-        <v>3433</v>
-      </c>
-      <c r="H48" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>361</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>362</v>
-      </c>
-      <c r="D49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49">
-        <v>2416222760</v>
-      </c>
-      <c r="F49">
-        <v>45</v>
-      </c>
-      <c r="G49">
-        <v>87</v>
-      </c>
-      <c r="H49" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>364</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>365</v>
-      </c>
-      <c r="D50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50">
-        <v>1478741480</v>
-      </c>
-      <c r="F50">
-        <v>295</v>
-      </c>
-      <c r="G50">
-        <v>126</v>
-      </c>
-      <c r="H50" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>367</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>368</v>
-      </c>
-      <c r="D51" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51">
-        <v>3507908480</v>
-      </c>
-      <c r="F51">
-        <v>8081</v>
-      </c>
-      <c r="G51">
-        <v>657</v>
-      </c>
-      <c r="H51" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>370</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>371</v>
-      </c>
-      <c r="D52" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52">
-        <v>237953524</v>
-      </c>
-      <c r="F52">
-        <v>4276</v>
-      </c>
-      <c r="G52">
-        <v>3051</v>
-      </c>
-      <c r="H52" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>373</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>374</v>
-      </c>
-      <c r="D53" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53">
-        <v>2218364912</v>
-      </c>
-      <c r="F53">
-        <v>3272</v>
-      </c>
-      <c r="G53">
-        <v>3452</v>
-      </c>
-      <c r="H53" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>376</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>377</v>
-      </c>
-      <c r="D54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54">
-        <v>16572645</v>
-      </c>
-      <c r="F54">
-        <v>5483</v>
-      </c>
-      <c r="G54">
-        <v>1168</v>
-      </c>
-      <c r="H54" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>379</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>380</v>
-      </c>
-      <c r="D55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55">
-        <v>470708999</v>
-      </c>
-      <c r="F55">
-        <v>850</v>
-      </c>
-      <c r="G55">
-        <v>851</v>
-      </c>
-      <c r="H55" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>382</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>383</v>
-      </c>
-      <c r="D56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56">
-        <v>784890702</v>
-      </c>
-      <c r="F56">
-        <v>23316</v>
-      </c>
-      <c r="G56">
-        <v>25524</v>
-      </c>
-      <c r="H56" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>385</v>
-      </c>
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>386</v>
-      </c>
-      <c r="D57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57">
-        <v>1085359494</v>
-      </c>
-      <c r="F57">
-        <v>3861</v>
-      </c>
-      <c r="G57">
-        <v>1275</v>
-      </c>
-      <c r="H57" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>388</v>
-      </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58" t="s">
-        <v>389</v>
-      </c>
-      <c r="D58" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58">
-        <v>756823358</v>
-      </c>
-      <c r="F58">
-        <v>1282</v>
-      </c>
-      <c r="G58">
-        <v>790</v>
-      </c>
-      <c r="H58" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>391</v>
-      </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
-      <c r="C59" t="s">
-        <v>392</v>
-      </c>
-      <c r="D59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59">
-        <v>329771366</v>
-      </c>
-      <c r="F59">
-        <v>3907</v>
-      </c>
-      <c r="G59">
-        <v>744</v>
-      </c>
-      <c r="H59" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>394</v>
-      </c>
-      <c r="B60">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s">
-        <v>395</v>
-      </c>
-      <c r="D60" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60">
-        <v>211429450</v>
-      </c>
-      <c r="F60">
-        <v>9345</v>
-      </c>
-      <c r="G60">
-        <v>420</v>
-      </c>
-      <c r="H60" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>397</v>
-      </c>
-      <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>398</v>
-      </c>
-      <c r="D61" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61">
-        <v>7.4167427612688294E+17</v>
-      </c>
-      <c r="F61">
-        <v>54</v>
-      </c>
-      <c r="G61">
-        <v>21</v>
-      </c>
-      <c r="H61" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>400</v>
-      </c>
-      <c r="B62">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s">
-        <v>401</v>
-      </c>
-      <c r="D62" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62">
-        <v>770254346</v>
-      </c>
-      <c r="F62">
-        <v>21950</v>
-      </c>
-      <c r="G62">
-        <v>495</v>
-      </c>
-      <c r="H62" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>403</v>
-      </c>
-      <c r="B63">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>404</v>
-      </c>
-      <c r="D63" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63">
-        <v>382565521</v>
-      </c>
-      <c r="F63">
-        <v>470</v>
-      </c>
-      <c r="G63">
-        <v>382</v>
-      </c>
-      <c r="H63" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>406</v>
-      </c>
-      <c r="B64">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>407</v>
-      </c>
-      <c r="D64" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64">
-        <v>7.3811794556658406E+17</v>
-      </c>
-      <c r="F64">
-        <v>253</v>
-      </c>
-      <c r="G64">
-        <v>339</v>
-      </c>
-      <c r="H64" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>409</v>
-      </c>
-      <c r="B65">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>410</v>
-      </c>
-      <c r="D65" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65">
-        <v>3160404205</v>
-      </c>
-      <c r="F65">
-        <v>10067</v>
-      </c>
-      <c r="G65">
-        <v>4548</v>
-      </c>
-      <c r="H65" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>412</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>413</v>
-      </c>
-      <c r="D66" t="s">
-        <v>64</v>
-      </c>
-      <c r="E66">
-        <v>386850645</v>
-      </c>
-      <c r="F66">
-        <v>1152</v>
-      </c>
-      <c r="G66">
-        <v>893</v>
-      </c>
-      <c r="H66" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>415</v>
-      </c>
-      <c r="B67">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>416</v>
-      </c>
-      <c r="D67" t="s">
-        <v>64</v>
-      </c>
-      <c r="E67">
-        <v>4795366410</v>
-      </c>
-      <c r="F67">
-        <v>326</v>
-      </c>
-      <c r="G67">
-        <v>320</v>
-      </c>
-      <c r="H67" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
-        <v>418</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>419</v>
-      </c>
-      <c r="D68" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68">
-        <v>2225940426</v>
-      </c>
-      <c r="F68">
-        <v>1392</v>
-      </c>
-      <c r="G68">
-        <v>623</v>
-      </c>
-      <c r="H68" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="s">
-        <v>421</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>422</v>
-      </c>
-      <c r="D69" t="s">
-        <v>64</v>
-      </c>
-      <c r="E69">
-        <v>190328619</v>
-      </c>
-      <c r="F69">
-        <v>2153</v>
-      </c>
-      <c r="G69">
-        <v>735</v>
-      </c>
-      <c r="H69" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>424</v>
-      </c>
-      <c r="B70">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
-        <v>425</v>
-      </c>
-      <c r="D70" t="s">
-        <v>66</v>
-      </c>
-      <c r="E70">
-        <v>2281993381</v>
-      </c>
-      <c r="F70">
-        <v>22244</v>
-      </c>
-      <c r="G70">
-        <v>16562</v>
-      </c>
-      <c r="H70" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
-        <v>427</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>428</v>
-      </c>
-      <c r="D71" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71">
-        <v>2761637955</v>
-      </c>
-      <c r="F71">
-        <v>2448</v>
-      </c>
-      <c r="G71">
-        <v>1382</v>
-      </c>
-      <c r="H71" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>430</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
-        <v>431</v>
-      </c>
-      <c r="D72" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72">
-        <v>2185029404</v>
-      </c>
-      <c r="F72">
-        <v>328</v>
-      </c>
-      <c r="G72">
-        <v>126</v>
-      </c>
-      <c r="H72" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
-        <v>433</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>434</v>
-      </c>
-      <c r="D73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73">
-        <v>3035799930</v>
-      </c>
-      <c r="F73">
-        <v>704</v>
-      </c>
-      <c r="G73">
-        <v>1548</v>
-      </c>
-      <c r="H73" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>436</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>437</v>
-      </c>
-      <c r="D74" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74">
-        <v>16983098</v>
-      </c>
-      <c r="F74">
-        <v>18234</v>
-      </c>
-      <c r="G74">
-        <v>10735</v>
-      </c>
-      <c r="H74" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>439</v>
-      </c>
-      <c r="B75">
-        <v>3</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D75" t="s">
-        <v>64</v>
-      </c>
-      <c r="E75">
-        <v>2159412348</v>
-      </c>
-      <c r="F75">
-        <v>450</v>
-      </c>
-      <c r="G75">
-        <v>369</v>
-      </c>
-      <c r="H75" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
-        <v>442</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>443</v>
-      </c>
-      <c r="D76" t="s">
-        <v>88</v>
-      </c>
-      <c r="E76">
-        <v>2902277768</v>
-      </c>
-      <c r="F76">
-        <v>571</v>
-      </c>
-      <c r="G76">
-        <v>659</v>
-      </c>
-      <c r="H76" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>445</v>
-      </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>446</v>
-      </c>
-      <c r="D77" t="s">
-        <v>64</v>
-      </c>
-      <c r="E77">
-        <v>2445826134</v>
-      </c>
-      <c r="F77">
-        <v>2166</v>
-      </c>
-      <c r="G77">
-        <v>741</v>
-      </c>
-      <c r="H77" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>448</v>
-      </c>
-      <c r="B78">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>449</v>
-      </c>
-      <c r="D78" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78">
-        <v>344572486</v>
-      </c>
-      <c r="F78">
-        <v>10507</v>
-      </c>
-      <c r="G78">
-        <v>4755</v>
-      </c>
-      <c r="H78" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
-        <v>451</v>
-      </c>
-      <c r="B79">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>452</v>
-      </c>
-      <c r="D79" t="s">
-        <v>64</v>
-      </c>
-      <c r="E79">
-        <v>604101237</v>
-      </c>
-      <c r="F79">
-        <v>3132</v>
-      </c>
-      <c r="G79">
-        <v>1318</v>
-      </c>
-      <c r="H79" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>454</v>
-      </c>
-      <c r="B80">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>455</v>
-      </c>
-      <c r="D80" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80">
-        <v>1480795956</v>
-      </c>
-      <c r="F80">
-        <v>15088</v>
-      </c>
-      <c r="G80">
-        <v>202</v>
-      </c>
-      <c r="H80" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>457</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
-        <v>458</v>
-      </c>
-      <c r="D81" t="s">
-        <v>64</v>
-      </c>
-      <c r="E81">
-        <v>1196599460</v>
-      </c>
-      <c r="F81">
-        <v>819</v>
-      </c>
-      <c r="G81">
-        <v>321</v>
-      </c>
-      <c r="H81" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="s">
-        <v>460</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
-        <v>461</v>
-      </c>
-      <c r="D82" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82">
-        <v>3321592382</v>
-      </c>
-      <c r="F82">
-        <v>880</v>
-      </c>
-      <c r="G82">
-        <v>666</v>
-      </c>
-      <c r="H82" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
-        <v>463</v>
-      </c>
-      <c r="B83">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
-        <v>464</v>
-      </c>
-      <c r="D83" t="s">
-        <v>88</v>
-      </c>
-      <c r="E83">
-        <v>2382855553</v>
-      </c>
-      <c r="F83">
-        <v>1020</v>
-      </c>
-      <c r="G83">
-        <v>1060</v>
-      </c>
-      <c r="H83" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
-        <v>466</v>
-      </c>
-      <c r="B84">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
-        <v>467</v>
-      </c>
-      <c r="D84" t="s">
-        <v>64</v>
-      </c>
-      <c r="E84">
-        <v>554778120</v>
-      </c>
-      <c r="F84">
-        <v>640</v>
-      </c>
-      <c r="G84">
-        <v>236</v>
-      </c>
-      <c r="H84" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>469</v>
-      </c>
-      <c r="B85">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
-        <v>470</v>
-      </c>
-      <c r="D85" t="s">
-        <v>66</v>
-      </c>
-      <c r="E85">
-        <v>7.2512875729245696E+17</v>
-      </c>
-      <c r="F85">
-        <v>59</v>
-      </c>
-      <c r="G85">
-        <v>58</v>
-      </c>
-      <c r="H85" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="s">
-        <v>472</v>
-      </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-      <c r="C86" t="s">
-        <v>473</v>
-      </c>
-      <c r="D86" t="s">
-        <v>88</v>
-      </c>
-      <c r="E86">
-        <v>2902277768</v>
-      </c>
-      <c r="F86">
-        <v>571</v>
-      </c>
-      <c r="G86">
-        <v>659</v>
-      </c>
-      <c r="H86" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>475</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87" t="s">
-        <v>428</v>
-      </c>
-      <c r="D87" t="s">
-        <v>64</v>
-      </c>
-      <c r="E87">
-        <v>2837240984</v>
-      </c>
-      <c r="F87">
-        <v>1036</v>
-      </c>
-      <c r="G87">
-        <v>511</v>
-      </c>
-      <c r="H87" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>477</v>
-      </c>
-      <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88" t="s">
-        <v>478</v>
-      </c>
-      <c r="D88" t="s">
-        <v>64</v>
-      </c>
-      <c r="E88">
-        <v>3986492492</v>
-      </c>
-      <c r="F88">
-        <v>950</v>
-      </c>
-      <c r="G88">
-        <v>633</v>
-      </c>
-      <c r="H88" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
-        <v>480</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-      <c r="C89" t="s">
-        <v>481</v>
-      </c>
-      <c r="D89" t="s">
-        <v>482</v>
-      </c>
-      <c r="E89">
-        <v>154239059</v>
-      </c>
-      <c r="F89">
-        <v>1211</v>
-      </c>
-      <c r="G89">
-        <v>555</v>
-      </c>
-      <c r="H89" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>484</v>
-      </c>
-      <c r="B90">
-        <v>2</v>
-      </c>
-      <c r="C90" t="s">
-        <v>485</v>
-      </c>
-      <c r="D90" t="s">
-        <v>90</v>
-      </c>
-      <c r="E90">
-        <v>1573693694</v>
-      </c>
-      <c r="F90">
-        <v>67571</v>
-      </c>
-      <c r="G90">
-        <v>55693</v>
-      </c>
-      <c r="H90" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>487</v>
-      </c>
-      <c r="B91">
-        <v>2</v>
-      </c>
-      <c r="C91" t="s">
-        <v>488</v>
-      </c>
-      <c r="D91" t="s">
-        <v>64</v>
-      </c>
-      <c r="E91">
-        <v>1002557064</v>
-      </c>
-      <c r="F91">
-        <v>321</v>
-      </c>
-      <c r="G91">
-        <v>382</v>
-      </c>
-      <c r="H91" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>490</v>
-      </c>
-      <c r="B92">
-        <v>2</v>
-      </c>
-      <c r="C92" t="s">
-        <v>491</v>
-      </c>
-      <c r="D92" t="s">
-        <v>64</v>
-      </c>
-      <c r="E92">
-        <v>2502372265</v>
-      </c>
-      <c r="F92">
-        <v>2417</v>
-      </c>
-      <c r="G92">
-        <v>1316</v>
-      </c>
-      <c r="H92" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>493</v>
-      </c>
-      <c r="B93">
-        <v>2</v>
-      </c>
-      <c r="C93" t="s">
-        <v>494</v>
-      </c>
-      <c r="D93" t="s">
-        <v>64</v>
-      </c>
-      <c r="E93">
-        <v>7.0411697053107405E+17</v>
-      </c>
-      <c r="F93">
-        <v>257</v>
-      </c>
-      <c r="G93">
-        <v>364</v>
-      </c>
-      <c r="H93" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>496</v>
-      </c>
-      <c r="B94">
-        <v>2</v>
-      </c>
-      <c r="C94" t="s">
-        <v>497</v>
-      </c>
-      <c r="D94" t="s">
-        <v>64</v>
-      </c>
-      <c r="E94">
-        <v>333836399</v>
-      </c>
-      <c r="F94">
-        <v>2479</v>
-      </c>
-      <c r="G94">
-        <v>988</v>
-      </c>
-      <c r="H94" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>499</v>
-      </c>
-      <c r="B95">
-        <v>2</v>
-      </c>
-      <c r="C95" t="s">
-        <v>500</v>
-      </c>
-      <c r="D95" t="s">
-        <v>90</v>
-      </c>
-      <c r="E95">
-        <v>4588283553</v>
-      </c>
-      <c r="F95">
-        <v>14027</v>
-      </c>
-      <c r="G95">
-        <v>3857</v>
-      </c>
-      <c r="H95" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="s">
-        <v>502</v>
-      </c>
-      <c r="B96">
-        <v>2</v>
-      </c>
-      <c r="C96" t="s">
-        <v>503</v>
-      </c>
-      <c r="D96" t="s">
-        <v>88</v>
-      </c>
-      <c r="E96">
-        <v>1270357184</v>
-      </c>
-      <c r="F96">
-        <v>493</v>
-      </c>
-      <c r="G96">
-        <v>693</v>
-      </c>
-      <c r="H96" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>505</v>
-      </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97" t="s">
-        <v>506</v>
-      </c>
-      <c r="D97" t="s">
-        <v>66</v>
-      </c>
-      <c r="E97">
-        <v>4532238923</v>
-      </c>
-      <c r="F97">
-        <v>1262</v>
-      </c>
-      <c r="G97">
-        <v>1998</v>
-      </c>
-      <c r="H97" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>508</v>
-      </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>509</v>
-      </c>
-      <c r="D98" t="s">
-        <v>64</v>
-      </c>
-      <c r="E98">
-        <v>34025665</v>
-      </c>
-      <c r="F98">
-        <v>29</v>
-      </c>
-      <c r="G98">
-        <v>137</v>
-      </c>
-      <c r="H98" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>511</v>
-      </c>
-      <c r="B99">
-        <v>2</v>
-      </c>
-      <c r="C99" t="s">
-        <v>512</v>
-      </c>
-      <c r="D99" t="s">
-        <v>64</v>
-      </c>
-      <c r="E99">
-        <v>412034789</v>
-      </c>
-      <c r="F99">
-        <v>5559</v>
-      </c>
-      <c r="G99">
-        <v>638</v>
-      </c>
-      <c r="H99" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>514</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>515</v>
-      </c>
-      <c r="D100" t="s">
-        <v>64</v>
-      </c>
-      <c r="E100">
-        <v>239179677</v>
-      </c>
-      <c r="F100">
-        <v>1039</v>
-      </c>
-      <c r="G100">
-        <v>101</v>
-      </c>
-      <c r="H100" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>517</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
-      </c>
-      <c r="C101" t="s">
-        <v>518</v>
-      </c>
-      <c r="D101" t="s">
-        <v>64</v>
-      </c>
-      <c r="E101">
-        <v>124246798</v>
-      </c>
-      <c r="F101">
-        <v>1235</v>
-      </c>
-      <c r="G101">
-        <v>918</v>
-      </c>
-      <c r="H101" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>520</v>
-      </c>
-      <c r="B102">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s">
-        <v>521</v>
-      </c>
-      <c r="D102" t="s">
-        <v>64</v>
-      </c>
-      <c r="E102">
-        <v>260225472</v>
-      </c>
-      <c r="F102">
-        <v>4551</v>
-      </c>
-      <c r="G102">
-        <v>399</v>
-      </c>
-      <c r="H102" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>523</v>
-      </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-      <c r="C103" t="s">
-        <v>524</v>
-      </c>
-      <c r="D103" t="s">
-        <v>64</v>
-      </c>
-      <c r="E103">
-        <v>3831434953</v>
-      </c>
-      <c r="F103">
-        <v>79</v>
-      </c>
-      <c r="G103">
-        <v>85</v>
-      </c>
-      <c r="H103" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
-        <v>526</v>
-      </c>
-      <c r="B104">
-        <v>2</v>
-      </c>
-      <c r="C104" t="s">
-        <v>527</v>
-      </c>
-      <c r="D104" t="s">
-        <v>64</v>
-      </c>
-      <c r="E104">
-        <v>417680262</v>
-      </c>
-      <c r="F104">
-        <v>301</v>
-      </c>
-      <c r="G104">
-        <v>505</v>
-      </c>
-      <c r="H104" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>529</v>
-      </c>
-      <c r="B105">
-        <v>2</v>
-      </c>
-      <c r="C105" t="s">
-        <v>521</v>
-      </c>
-      <c r="D105" t="s">
-        <v>64</v>
-      </c>
-      <c r="E105">
-        <v>353920976</v>
-      </c>
-      <c r="F105">
-        <v>1207</v>
-      </c>
-      <c r="G105">
-        <v>97</v>
-      </c>
-      <c r="H105" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>531</v>
-      </c>
-      <c r="B106">
-        <v>2</v>
-      </c>
-      <c r="C106" t="s">
-        <v>532</v>
-      </c>
-      <c r="D106" t="s">
-        <v>64</v>
-      </c>
-      <c r="E106">
-        <v>1517557530</v>
-      </c>
-      <c r="F106">
-        <v>1677</v>
-      </c>
-      <c r="G106">
-        <v>990</v>
-      </c>
-      <c r="H106" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
-        <v>534</v>
-      </c>
-      <c r="B107">
-        <v>2</v>
-      </c>
-      <c r="C107" t="s">
-        <v>428</v>
-      </c>
-      <c r="D107" t="s">
-        <v>64</v>
-      </c>
-      <c r="E107">
-        <v>2248782146</v>
-      </c>
-      <c r="F107">
-        <v>6339</v>
-      </c>
-      <c r="G107">
-        <v>5931</v>
-      </c>
-      <c r="H107" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>536</v>
-      </c>
-      <c r="B108">
-        <v>2</v>
-      </c>
-      <c r="C108" t="s">
-        <v>537</v>
-      </c>
-      <c r="D108" t="s">
-        <v>64</v>
-      </c>
-      <c r="E108">
-        <v>3087688539</v>
-      </c>
-      <c r="F108">
-        <v>631</v>
-      </c>
-      <c r="G108">
-        <v>98</v>
-      </c>
-      <c r="H108" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
-        <v>539</v>
-      </c>
-      <c r="B109">
-        <v>2</v>
-      </c>
-      <c r="C109" t="s">
-        <v>540</v>
-      </c>
-      <c r="D109" t="s">
-        <v>64</v>
-      </c>
-      <c r="E109">
-        <v>326904739</v>
-      </c>
-      <c r="F109">
-        <v>5060</v>
-      </c>
-      <c r="G109">
-        <v>2461</v>
-      </c>
-      <c r="H109" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>542</v>
-      </c>
-      <c r="B110">
-        <v>2</v>
-      </c>
-      <c r="C110" t="s">
-        <v>543</v>
-      </c>
-      <c r="D110" t="s">
-        <v>68</v>
-      </c>
-      <c r="E110">
-        <v>2554711104</v>
-      </c>
-      <c r="F110">
-        <v>489</v>
-      </c>
-      <c r="G110">
-        <v>281</v>
-      </c>
-      <c r="H110" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>545</v>
-      </c>
-      <c r="B111">
-        <v>2</v>
-      </c>
-      <c r="C111" t="s">
-        <v>546</v>
-      </c>
-      <c r="D111" t="s">
-        <v>64</v>
-      </c>
-      <c r="E111">
-        <v>3316981875</v>
-      </c>
-      <c r="F111">
-        <v>3948</v>
-      </c>
-      <c r="G111">
-        <v>2836</v>
-      </c>
-      <c r="H111" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
-        <v>548</v>
-      </c>
-      <c r="B112">
-        <v>2</v>
-      </c>
-      <c r="C112" t="s">
-        <v>549</v>
-      </c>
-      <c r="D112" t="s">
-        <v>64</v>
-      </c>
-      <c r="E112">
-        <v>3267697254</v>
-      </c>
-      <c r="F112">
-        <v>1250</v>
-      </c>
-      <c r="G112">
-        <v>263</v>
-      </c>
-      <c r="H112" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>551</v>
-      </c>
-      <c r="B113">
-        <v>2</v>
-      </c>
-      <c r="C113" t="s">
-        <v>552</v>
-      </c>
-      <c r="D113" t="s">
-        <v>64</v>
-      </c>
-      <c r="E113">
-        <v>84449303</v>
-      </c>
-      <c r="F113">
-        <v>316</v>
-      </c>
-      <c r="G113">
-        <v>609</v>
-      </c>
-      <c r="H113" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
-        <v>554</v>
-      </c>
-      <c r="B114">
-        <v>2</v>
-      </c>
-      <c r="C114" t="s">
-        <v>555</v>
-      </c>
-      <c r="D114" t="s">
-        <v>64</v>
-      </c>
-      <c r="E114">
-        <v>567928070</v>
-      </c>
-      <c r="F114">
-        <v>1365</v>
-      </c>
-      <c r="G114">
-        <v>101</v>
-      </c>
-      <c r="H114" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>557</v>
-      </c>
-      <c r="B115">
-        <v>2</v>
-      </c>
-      <c r="C115" t="s">
-        <v>558</v>
-      </c>
-      <c r="D115" t="s">
-        <v>64</v>
-      </c>
-      <c r="E115">
-        <v>2940226945</v>
-      </c>
-      <c r="F115">
-        <v>521</v>
-      </c>
-      <c r="G115">
-        <v>423</v>
-      </c>
-      <c r="H115" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
-        <v>560</v>
-      </c>
-      <c r="B116">
-        <v>2</v>
-      </c>
-      <c r="C116" t="s">
-        <v>561</v>
-      </c>
-      <c r="D116" t="s">
-        <v>90</v>
-      </c>
-      <c r="E116">
-        <v>3100586208</v>
-      </c>
-      <c r="F116">
-        <v>225</v>
-      </c>
-      <c r="G116">
-        <v>694</v>
-      </c>
-      <c r="H116" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" t="s">
-        <v>563</v>
-      </c>
-      <c r="B117">
-        <v>2</v>
-      </c>
-      <c r="C117" t="s">
-        <v>428</v>
-      </c>
-      <c r="D117" t="s">
-        <v>64</v>
-      </c>
-      <c r="E117">
-        <v>549488088</v>
-      </c>
-      <c r="F117">
-        <v>976</v>
-      </c>
-      <c r="G117">
-        <v>185</v>
-      </c>
-      <c r="H117" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" t="s">
-        <v>565</v>
-      </c>
-      <c r="B118">
-        <v>2</v>
-      </c>
-      <c r="C118" t="s">
-        <v>566</v>
-      </c>
-      <c r="D118" t="s">
-        <v>88</v>
-      </c>
-      <c r="E118">
-        <v>1270357184</v>
-      </c>
-      <c r="F118">
-        <v>493</v>
-      </c>
-      <c r="G118">
-        <v>693</v>
-      </c>
-      <c r="H118" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" t="s">
-        <v>568</v>
-      </c>
-      <c r="B119">
-        <v>2</v>
-      </c>
-      <c r="C119" t="s">
-        <v>569</v>
-      </c>
-      <c r="D119" t="s">
-        <v>88</v>
-      </c>
-      <c r="E119">
-        <v>2902277768</v>
-      </c>
-      <c r="F119">
-        <v>571</v>
-      </c>
-      <c r="G119">
-        <v>659</v>
-      </c>
-      <c r="H119" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="s">
-        <v>571</v>
-      </c>
-      <c r="B120">
-        <v>2</v>
-      </c>
-      <c r="C120" t="s">
-        <v>572</v>
-      </c>
-      <c r="D120" t="s">
-        <v>90</v>
-      </c>
-      <c r="E120">
-        <v>3971919014</v>
-      </c>
-      <c r="F120">
-        <v>39</v>
-      </c>
-      <c r="G120">
-        <v>52</v>
-      </c>
-      <c r="H120" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" t="s">
-        <v>574</v>
-      </c>
-      <c r="B121">
-        <v>2</v>
-      </c>
-      <c r="C121" t="s">
-        <v>575</v>
-      </c>
-      <c r="D121" t="s">
-        <v>64</v>
-      </c>
-      <c r="E121">
-        <v>120608597</v>
-      </c>
-      <c r="F121">
-        <v>1661</v>
-      </c>
-      <c r="G121">
-        <v>756</v>
-      </c>
-      <c r="H121" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" t="s">
-        <v>577</v>
-      </c>
-      <c r="B122">
-        <v>2</v>
-      </c>
-      <c r="C122" t="s">
-        <v>578</v>
-      </c>
-      <c r="D122" t="s">
-        <v>66</v>
-      </c>
-      <c r="E122">
-        <v>300398550</v>
-      </c>
-      <c r="F122">
-        <v>2309</v>
-      </c>
-      <c r="G122">
-        <v>888</v>
-      </c>
-      <c r="H122" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" t="s">
-        <v>580</v>
-      </c>
-      <c r="B123">
-        <v>2</v>
-      </c>
-      <c r="C123" t="s">
-        <v>581</v>
-      </c>
-      <c r="D123" t="s">
-        <v>88</v>
-      </c>
-      <c r="E123">
-        <v>2902277768</v>
-      </c>
-      <c r="F123">
-        <v>571</v>
-      </c>
-      <c r="G123">
-        <v>659</v>
-      </c>
-      <c r="H123" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" t="s">
-        <v>583</v>
-      </c>
-      <c r="B124">
-        <v>2</v>
-      </c>
-      <c r="C124" t="s">
-        <v>584</v>
-      </c>
-      <c r="D124" t="s">
-        <v>64</v>
-      </c>
-      <c r="E124">
-        <v>577583449</v>
-      </c>
-      <c r="F124">
-        <v>7091</v>
-      </c>
-      <c r="G124">
-        <v>5627</v>
-      </c>
-      <c r="H124" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" t="s">
-        <v>586</v>
-      </c>
-      <c r="B125">
-        <v>2</v>
-      </c>
-      <c r="C125" t="s">
-        <v>532</v>
-      </c>
-      <c r="D125" t="s">
-        <v>64</v>
-      </c>
-      <c r="E125">
-        <v>2865094475</v>
-      </c>
-      <c r="F125">
-        <v>1220</v>
-      </c>
-      <c r="G125">
-        <v>1076</v>
-      </c>
-      <c r="H125" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" t="s">
-        <v>588</v>
-      </c>
-      <c r="B126">
-        <v>2</v>
-      </c>
-      <c r="C126" t="s">
-        <v>589</v>
-      </c>
-      <c r="D126" t="s">
-        <v>88</v>
-      </c>
-      <c r="E126">
-        <v>574208689</v>
-      </c>
-      <c r="F126">
-        <v>54310</v>
-      </c>
-      <c r="G126">
-        <v>32680</v>
-      </c>
-      <c r="H126" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" t="s">
-        <v>591</v>
-      </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-      <c r="C127" t="s">
-        <v>592</v>
-      </c>
-      <c r="D127" t="s">
-        <v>64</v>
-      </c>
-      <c r="E127">
-        <v>7.0871190306179802E+17</v>
-      </c>
-      <c r="F127">
-        <v>26</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="s">
-        <v>594</v>
-      </c>
-      <c r="B128">
-        <v>2</v>
-      </c>
-      <c r="C128" t="s">
-        <v>595</v>
-      </c>
-      <c r="D128" t="s">
-        <v>64</v>
-      </c>
-      <c r="E128">
-        <v>161030824</v>
-      </c>
-      <c r="F128">
-        <v>2896</v>
-      </c>
-      <c r="G128">
-        <v>2453</v>
-      </c>
-      <c r="H128" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" t="s">
-        <v>597</v>
-      </c>
-      <c r="B129">
-        <v>2</v>
-      </c>
-      <c r="C129" t="s">
-        <v>598</v>
-      </c>
-      <c r="D129" t="s">
-        <v>64</v>
-      </c>
-      <c r="E129">
-        <v>15625804</v>
-      </c>
-      <c r="F129">
-        <v>85</v>
-      </c>
-      <c r="G129">
-        <v>80</v>
-      </c>
-      <c r="H129" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="s">
-        <v>600</v>
-      </c>
-      <c r="B130">
-        <v>2</v>
-      </c>
-      <c r="C130" t="s">
-        <v>601</v>
-      </c>
-      <c r="D130" t="s">
-        <v>64</v>
-      </c>
-      <c r="E130">
-        <v>1612023859</v>
-      </c>
-      <c r="F130">
-        <v>671</v>
-      </c>
-      <c r="G130">
-        <v>569</v>
-      </c>
-      <c r="H130" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" t="s">
-        <v>603</v>
-      </c>
-      <c r="B131">
-        <v>2</v>
-      </c>
-      <c r="C131" t="s">
-        <v>604</v>
-      </c>
-      <c r="D131" t="s">
-        <v>64</v>
-      </c>
-      <c r="E131">
-        <v>7.35234371452608E+17</v>
-      </c>
-      <c r="F131">
-        <v>311</v>
-      </c>
-      <c r="G131">
-        <v>186</v>
-      </c>
-      <c r="H131" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" t="s">
-        <v>606</v>
-      </c>
-      <c r="B132">
-        <v>2</v>
-      </c>
-      <c r="C132" t="s">
-        <v>607</v>
-      </c>
-      <c r="D132" t="s">
-        <v>64</v>
-      </c>
-      <c r="E132">
-        <v>200907709</v>
-      </c>
-      <c r="F132">
-        <v>562</v>
-      </c>
-      <c r="G132">
-        <v>281</v>
-      </c>
-      <c r="H132" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" t="s">
-        <v>609</v>
-      </c>
-      <c r="B133">
-        <v>2</v>
-      </c>
-      <c r="C133" t="s">
-        <v>610</v>
-      </c>
-      <c r="D133" t="s">
-        <v>64</v>
-      </c>
-      <c r="E133">
-        <v>34025665</v>
-      </c>
-      <c r="F133">
-        <v>29</v>
-      </c>
-      <c r="G133">
-        <v>137</v>
-      </c>
-      <c r="H133" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" t="s">
-        <v>612</v>
-      </c>
-      <c r="B134">
-        <v>2</v>
-      </c>
-      <c r="C134" t="s">
-        <v>613</v>
-      </c>
-      <c r="D134" t="s">
-        <v>64</v>
-      </c>
-      <c r="E134">
-        <v>3124581427</v>
-      </c>
-      <c r="F134">
-        <v>1406</v>
-      </c>
-      <c r="G134">
-        <v>951</v>
-      </c>
-      <c r="H134" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" t="s">
-        <v>615</v>
-      </c>
-      <c r="B135">
-        <v>2</v>
-      </c>
-      <c r="C135" t="s">
-        <v>616</v>
-      </c>
-      <c r="D135" t="s">
-        <v>64</v>
-      </c>
-      <c r="E135">
-        <v>4371564436</v>
-      </c>
-      <c r="F135">
-        <v>2900</v>
-      </c>
-      <c r="G135">
-        <v>4981</v>
-      </c>
-      <c r="H135" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" t="s">
-        <v>618</v>
-      </c>
-      <c r="B136">
-        <v>2</v>
-      </c>
-      <c r="C136" t="s">
-        <v>619</v>
-      </c>
-      <c r="D136" t="s">
-        <v>64</v>
-      </c>
-      <c r="E136">
-        <v>2927498065</v>
-      </c>
-      <c r="F136">
-        <v>502</v>
-      </c>
-      <c r="G136">
-        <v>112</v>
-      </c>
-      <c r="H136" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" t="s">
-        <v>621</v>
-      </c>
-      <c r="B137">
-        <v>2</v>
-      </c>
-      <c r="C137" t="s">
-        <v>622</v>
-      </c>
-      <c r="D137" t="s">
-        <v>64</v>
-      </c>
-      <c r="E137">
-        <v>7.36296692383776E+17</v>
-      </c>
-      <c r="F137">
-        <v>192</v>
-      </c>
-      <c r="G137">
-        <v>218</v>
-      </c>
-      <c r="H137" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" t="s">
-        <v>624</v>
-      </c>
-      <c r="B138">
-        <v>2</v>
-      </c>
-      <c r="C138" t="s">
-        <v>625</v>
-      </c>
-      <c r="D138" t="s">
-        <v>64</v>
-      </c>
-      <c r="E138">
-        <v>930960408</v>
-      </c>
-      <c r="F138">
-        <v>796</v>
-      </c>
-      <c r="G138">
-        <v>403</v>
-      </c>
-      <c r="H138" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" t="s">
-        <v>627</v>
-      </c>
-      <c r="B139">
-        <v>2</v>
-      </c>
-      <c r="C139" t="s">
-        <v>628</v>
-      </c>
-      <c r="D139" t="s">
-        <v>64</v>
-      </c>
-      <c r="E139">
-        <v>606170676</v>
-      </c>
-      <c r="F139">
-        <v>2041</v>
-      </c>
-      <c r="G139">
-        <v>2409</v>
-      </c>
-      <c r="H139" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" t="s">
-        <v>630</v>
-      </c>
-      <c r="B140">
-        <v>2</v>
-      </c>
-      <c r="C140" t="s">
-        <v>428</v>
-      </c>
-      <c r="D140" t="s">
-        <v>64</v>
-      </c>
-      <c r="E140">
-        <v>2316221707</v>
-      </c>
-      <c r="F140">
-        <v>693</v>
-      </c>
-      <c r="G140">
-        <v>529</v>
-      </c>
-      <c r="H140" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" t="s">
-        <v>632</v>
-      </c>
-      <c r="B141">
-        <v>2</v>
-      </c>
-      <c r="C141" t="s">
-        <v>633</v>
-      </c>
-      <c r="D141" t="s">
-        <v>64</v>
-      </c>
-      <c r="E141">
-        <v>4760989556</v>
-      </c>
-      <c r="F141">
-        <v>737</v>
-      </c>
-      <c r="G141">
-        <v>1408</v>
-      </c>
-      <c r="H141" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" t="s">
-        <v>635</v>
-      </c>
-      <c r="B142">
-        <v>2</v>
-      </c>
-      <c r="C142" t="s">
-        <v>636</v>
-      </c>
-      <c r="D142" t="s">
-        <v>68</v>
-      </c>
-      <c r="E142">
-        <v>3186364494</v>
-      </c>
-      <c r="F142">
-        <v>6254</v>
-      </c>
-      <c r="G142">
-        <v>6095</v>
-      </c>
-      <c r="H142" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" t="s">
-        <v>638</v>
-      </c>
-      <c r="B143">
-        <v>2</v>
-      </c>
-      <c r="C143" t="s">
-        <v>639</v>
-      </c>
-      <c r="D143" t="s">
-        <v>64</v>
-      </c>
-      <c r="E143">
-        <v>2508291378</v>
-      </c>
-      <c r="F143">
-        <v>1426</v>
-      </c>
-      <c r="G143">
-        <v>1145</v>
-      </c>
-      <c r="H143" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="s">
-        <v>641</v>
-      </c>
-      <c r="B144">
-        <v>2</v>
-      </c>
-      <c r="C144" t="s">
-        <v>642</v>
-      </c>
-      <c r="D144" t="s">
-        <v>64</v>
-      </c>
-      <c r="E144">
-        <v>165963861</v>
-      </c>
-      <c r="F144">
-        <v>2221</v>
-      </c>
-      <c r="G144">
-        <v>1775</v>
-      </c>
-      <c r="H144" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" t="s">
-        <v>644</v>
-      </c>
-      <c r="B145">
-        <v>2</v>
-      </c>
-      <c r="C145" t="s">
-        <v>506</v>
-      </c>
-      <c r="D145" t="s">
-        <v>66</v>
-      </c>
-      <c r="E145">
-        <v>4725964375</v>
-      </c>
-      <c r="F145">
-        <v>2562</v>
-      </c>
-      <c r="G145">
-        <v>1998</v>
-      </c>
-      <c r="H145" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" t="s">
-        <v>646</v>
-      </c>
-      <c r="B146">
-        <v>2</v>
-      </c>
-      <c r="C146" t="s">
-        <v>647</v>
-      </c>
-      <c r="D146" t="s">
-        <v>64</v>
-      </c>
-      <c r="E146">
-        <v>88558957</v>
-      </c>
-      <c r="F146">
-        <v>800</v>
-      </c>
-      <c r="G146">
-        <v>182</v>
-      </c>
-      <c r="H146" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="s">
-        <v>649</v>
-      </c>
-      <c r="B147">
-        <v>2</v>
-      </c>
-      <c r="C147" t="s">
-        <v>650</v>
-      </c>
-      <c r="D147" t="s">
-        <v>88</v>
-      </c>
-      <c r="E147">
-        <v>7.2997824647793805E+17</v>
-      </c>
-      <c r="F147">
-        <v>15</v>
-      </c>
-      <c r="G147">
-        <v>12</v>
-      </c>
-      <c r="H147" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" t="s">
-        <v>652</v>
-      </c>
-      <c r="B148">
-        <v>2</v>
-      </c>
-      <c r="C148" t="s">
-        <v>653</v>
-      </c>
-      <c r="D148" t="s">
-        <v>64</v>
-      </c>
-      <c r="E148">
-        <v>1678813020</v>
-      </c>
-      <c r="F148">
-        <v>12381</v>
-      </c>
-      <c r="G148">
-        <v>1481</v>
-      </c>
-      <c r="H148" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" t="s">
-        <v>655</v>
-      </c>
-      <c r="B149">
-        <v>2</v>
-      </c>
-      <c r="C149" t="s">
-        <v>656</v>
-      </c>
-      <c r="D149" t="s">
-        <v>64</v>
-      </c>
-      <c r="E149">
-        <v>285290487</v>
-      </c>
-      <c r="F149">
-        <v>561</v>
-      </c>
-      <c r="G149">
-        <v>197</v>
-      </c>
-      <c r="H149" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" t="s">
-        <v>658</v>
-      </c>
-      <c r="B150">
-        <v>2</v>
-      </c>
-      <c r="C150" t="s">
-        <v>659</v>
-      </c>
-      <c r="D150" t="s">
-        <v>88</v>
-      </c>
-      <c r="E150">
-        <v>7.1780718410544704E+17</v>
-      </c>
-      <c r="F150">
-        <v>2504</v>
-      </c>
-      <c r="G150">
-        <v>4043</v>
-      </c>
-      <c r="H150" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" t="s">
-        <v>661</v>
-      </c>
-      <c r="B151">
-        <v>2</v>
-      </c>
-      <c r="C151" t="s">
-        <v>662</v>
-      </c>
-      <c r="D151" t="s">
-        <v>68</v>
-      </c>
-      <c r="E151">
-        <v>1475013896</v>
-      </c>
-      <c r="F151">
-        <v>57514</v>
-      </c>
-      <c r="G151">
-        <v>125</v>
-      </c>
-      <c r="H151" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" t="s">
-        <v>664</v>
-      </c>
-      <c r="B152">
-        <v>2</v>
-      </c>
-      <c r="C152" t="s">
-        <v>665</v>
-      </c>
-      <c r="D152" t="s">
-        <v>66</v>
-      </c>
-      <c r="E152">
-        <v>344572486</v>
-      </c>
-      <c r="F152">
-        <v>10507</v>
-      </c>
-      <c r="G152">
-        <v>4755</v>
-      </c>
-      <c r="H152" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" t="s">
-        <v>667</v>
-      </c>
-      <c r="B153">
-        <v>2</v>
-      </c>
-      <c r="C153" t="s">
-        <v>668</v>
-      </c>
-      <c r="D153" t="s">
-        <v>64</v>
-      </c>
-      <c r="E153">
-        <v>7.3869747988178496E+17</v>
-      </c>
-      <c r="F153">
-        <v>335</v>
-      </c>
-      <c r="G153">
-        <v>438</v>
-      </c>
-      <c r="H153" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" t="s">
-        <v>670</v>
-      </c>
-      <c r="B154">
-        <v>2</v>
-      </c>
-      <c r="C154" t="s">
-        <v>671</v>
-      </c>
-      <c r="D154" t="s">
-        <v>64</v>
-      </c>
-      <c r="E154">
-        <v>818570478</v>
-      </c>
-      <c r="F154">
-        <v>281</v>
-      </c>
-      <c r="G154">
-        <v>180</v>
-      </c>
-      <c r="H154" t="s">
-        <v>672</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="70.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1">
-        <v>7.35234371452608E+17</v>
-      </c>
-      <c r="F1">
-        <v>311</v>
-      </c>
-      <c r="G1">
-        <v>186</v>
-      </c>
-      <c r="H1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2">
-        <v>541076667</v>
-      </c>
-      <c r="F2">
-        <v>2781</v>
-      </c>
-      <c r="G2">
-        <v>1859</v>
-      </c>
-      <c r="H2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3">
-        <v>541076667</v>
-      </c>
-      <c r="F3">
-        <v>2781</v>
-      </c>
-      <c r="G3">
-        <v>1859</v>
-      </c>
-      <c r="H3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4">
-        <v>541076667</v>
-      </c>
-      <c r="F4">
-        <v>2781</v>
-      </c>
-      <c r="G4">
-        <v>1859</v>
-      </c>
-      <c r="H4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5">
-        <v>541076667</v>
-      </c>
-      <c r="F5">
-        <v>2781</v>
-      </c>
-      <c r="G5">
-        <v>1859</v>
-      </c>
-      <c r="H5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6">
-        <v>541076667</v>
-      </c>
-      <c r="F6">
-        <v>2781</v>
-      </c>
-      <c r="G6">
-        <v>1859</v>
-      </c>
-      <c r="H6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7">
-        <v>541076667</v>
-      </c>
-      <c r="F7">
-        <v>2781</v>
-      </c>
-      <c r="G7">
-        <v>1859</v>
-      </c>
-      <c r="H7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8">
-        <v>3160404205</v>
-      </c>
-      <c r="F8">
-        <v>10067</v>
-      </c>
-      <c r="G8">
-        <v>4548</v>
-      </c>
-      <c r="H8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="76.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="52.1640625" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
@@ -14531,10 +10157,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="D21" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
       <c r="E21">
         <v>4785459269</v>
@@ -14668,7 +10294,7 @@
         <v>42417.002928240741</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>733</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -14697,7 +10323,7 @@
         <v>42415.94458333333</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>732</v>
+        <v>673</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -14753,7 +10379,7 @@
         <v>42410.107303240744</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -14811,7 +10437,7 @@
         <v>42408.388923611114</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -14898,10 +10524,10 @@
         <v>42413.097291666665</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="J33" t="s">
-        <v>737</v>
+        <v>678</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -14957,7 +10583,7 @@
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="3" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -15044,7 +10670,7 @@
         <v>42407.660115740742</v>
       </c>
       <c r="I38" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -15158,7 +10784,7 @@
       </c>
       <c r="H42" s="4"/>
       <c r="I42" t="s">
-        <v>732</v>
+        <v>673</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -15187,7 +10813,7 @@
         <v>299</v>
       </c>
       <c r="I43" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -15216,7 +10842,7 @@
         <v>42417.057928240742</v>
       </c>
       <c r="J44" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -15303,7 +10929,7 @@
         <v>42410.87023148148</v>
       </c>
       <c r="I47" t="s">
-        <v>740</v>
+        <v>681</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -15332,7 +10958,7 @@
         <v>42405.665983796294</v>
       </c>
       <c r="I48" t="s">
-        <v>740</v>
+        <v>681</v>
       </c>
     </row>
     <row r="49" spans="7:8">
@@ -15548,11 +11174,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K631"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>

--- a/twitter_data/Top_Retweets.xlsx
+++ b/twitter_data/Top_Retweets.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1080" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="80" yWindow="1080" windowWidth="28720" windowHeight="16920" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="new_classified (higher thres)" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="tweets9_posdab top (no hs)" sheetId="5" r:id="rId3"/>
     <sheet name="training set - RT &gt;=5" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
+    <sheet name="Retweet_Media_Analysis" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6136" uniqueCount="2466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6374" uniqueCount="2497">
   <si>
     <t xml:space="preserve">https://twitter.com/#!/ReallyHighIdeas/status/704773404239536132 </t>
   </si>
@@ -7428,13 +7428,106 @@
   </si>
   <si>
     <t>Videos</t>
+  </si>
+  <si>
+    <t>Positive and Negative</t>
+  </si>
+  <si>
+    <t>ONLY POSITIVES</t>
+  </si>
+  <si>
+    <t>dinafem</t>
+  </si>
+  <si>
+    <t>google play weedemoji</t>
+  </si>
+  <si>
+    <t>soundcloud podcast (of users)</t>
+  </si>
+  <si>
+    <t>meme about app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meme </t>
+  </si>
+  <si>
+    <t>of marijuana</t>
+  </si>
+  <si>
+    <t>periscope</t>
+  </si>
+  <si>
+    <t>itunes</t>
+  </si>
+  <si>
+    <t>high times</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>repeat of 10</t>
+  </si>
+  <si>
+    <t>mypottles</t>
+  </si>
+  <si>
+    <t>themedtainer.com</t>
+  </si>
+  <si>
+    <t>broken link</t>
+  </si>
+  <si>
+    <t>brotips</t>
+  </si>
+  <si>
+    <t>link to their podcast</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>RetweetCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type (Has Link) </t>
+  </si>
+  <si>
+    <t>Link Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_Category </t>
+  </si>
+  <si>
+    <t>spreaker</t>
+  </si>
+  <si>
+    <t>elite-daily</t>
+  </si>
+  <si>
+    <t>repeat of 23</t>
+  </si>
+  <si>
+    <t>link to his instagram</t>
+  </si>
+  <si>
+    <t>high_times</t>
+  </si>
+  <si>
+    <t>Website connected to user</t>
+  </si>
+  <si>
+    <t>External Link</t>
+  </si>
+  <si>
+    <t>Link connected to user (i.e. Instagram)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7462,6 +7555,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7609,13 +7710,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -7791,7 +7893,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Media in Top Tweets Retweeted 5+ times</a:t>
+              <a:t> of Media in Top Tweets Retweeted 5+ times [105]</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7995,10 +8097,9 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
@@ -8024,7 +8125,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$L$90:$L$95</c:f>
+              <c:f>Retweet_Media_Analysis!$L$90:$L$95</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -8050,18 +8151,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$M$90:$M$95</c:f>
+              <c:f>Retweet_Media_Analysis!$M$90:$M$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.0</c:v>
@@ -8077,10 +8178,413 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Distribution of Media in Top Positive MDab Tweets Retweeted 5+ times [105]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.104851008100373"/>
+          <c:y val="0.031104199066874"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retweet_Media_Analysis!$L$118:$L$123</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Only Pics</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Only Links</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pics With Links</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Retweets</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>No Media</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Videos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retweet_Media_Analysis!$M$118:$M$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
+          <c:showCatName val="1"/>
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
@@ -8186,7 +8690,1249 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Of Top</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 30 tweets Retweeted 5+ times with links</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$L$4:$L$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>twitch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>itunes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>high_times</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>facebook</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>instagram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bearmanradio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mrpottles</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bee-high</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>elite-daily</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>cannabistraininguniversity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>stonedtube</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>steephill</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bluntapparel</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>brobible</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>themedtainer.com</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$M$4:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Link Categories</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Top 30 tweets Retweeted 5+ times</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.176680446194226"/>
+          <c:y val="0.0342245162987194"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0787104111986001"/>
+                  <c:y val="-0.0239814814814815"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:pattFill prst="pct75">
+                  <a:fgClr>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:fgClr>
+                  <a:bgClr>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:bgClr>
+                </a:pattFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.245763998250219"/>
+                      <c:h val="0.230648148148148"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:spPr>
+                <a:pattFill prst="pct75">
+                  <a:fgClr>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:fgClr>
+                  <a:bgClr>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:bgClr>
+                </a:pattFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.35"/>
+                      <c:h val="0.185185185185185"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.371091426071741"/>
+                  <c:y val="0.0394923807801686"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$O$5:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Website connected to user</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Link connected to user (i.e. Instagram)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>External Link</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$P$5:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8827,20 +10573,1823 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8854,6 +12403,101 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22014,8 +25658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
-      <selection activeCell="P91" sqref="P91"/>
+    <sheetView topLeftCell="B111" workbookViewId="0">
+      <selection activeCell="M123" sqref="M122:M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22192,7 +25836,7 @@
       <c r="B6">
         <v>95</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
@@ -23029,7 +26673,7 @@
       <c r="B33">
         <v>14</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D33" t="s">
@@ -23045,7 +26689,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>321</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -23133,7 +26777,7 @@
       <c r="B37">
         <v>11</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>691</v>
       </c>
       <c r="D37" t="s">
@@ -23709,7 +27353,7 @@
       <c r="B58">
         <v>8</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D58" t="s">
@@ -24629,6 +28273,9 @@
       <c r="H89" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="L89" t="s">
+        <v>2466</v>
+      </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -24662,7 +28309,7 @@
         <v>2462</v>
       </c>
       <c r="M90">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -24729,7 +28376,7 @@
         <v>2461</v>
       </c>
       <c r="M92">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -25128,7 +28775,12 @@
       <c r="G106">
         <v>4190</v>
       </c>
-      <c r="H106" s="4"/>
+      <c r="H106" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I106" t="s">
+        <v>2468</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -25152,7 +28804,9 @@
       <c r="G107" t="s">
         <v>65</v>
       </c>
-      <c r="H107" s="4"/>
+      <c r="H107" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -25176,7 +28830,9 @@
       <c r="G108">
         <v>404</v>
       </c>
-      <c r="H108" s="4"/>
+      <c r="H108" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
@@ -25200,7 +28856,12 @@
       <c r="G109" t="s">
         <v>65</v>
       </c>
-      <c r="H109" s="4"/>
+      <c r="H109" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I109" t="s">
+        <v>2469</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -25224,7 +28885,12 @@
       <c r="G110" t="s">
         <v>65</v>
       </c>
-      <c r="H110" s="4"/>
+      <c r="H110" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I110" t="s">
+        <v>2470</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -25248,7 +28914,12 @@
       <c r="G111" t="s">
         <v>65</v>
       </c>
-      <c r="H111" s="4"/>
+      <c r="H111" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I111" t="s">
+        <v>2450</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
@@ -25272,16 +28943,18 @@
       <c r="G112" t="s">
         <v>65</v>
       </c>
-      <c r="H112" s="4"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H112" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>727</v>
       </c>
       <c r="B113">
         <v>4</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>728</v>
       </c>
       <c r="D113" t="s">
@@ -25296,16 +28969,18 @@
       <c r="G113" t="s">
         <v>65</v>
       </c>
-      <c r="H113" s="4"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H113" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>729</v>
       </c>
       <c r="B114">
         <v>4</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>730</v>
       </c>
       <c r="D114" t="s">
@@ -25320,9 +28995,11 @@
       <c r="G114">
         <v>2015</v>
       </c>
-      <c r="H114" s="4"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H114" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>731</v>
       </c>
@@ -25344,9 +29021,11 @@
       <c r="G115" t="s">
         <v>65</v>
       </c>
-      <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H115" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>733</v>
       </c>
@@ -25368,9 +29047,11 @@
       <c r="G116" t="s">
         <v>65</v>
       </c>
-      <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H116" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>735</v>
       </c>
@@ -25392,9 +29073,14 @@
       <c r="G117">
         <v>1336</v>
       </c>
-      <c r="H117" s="4"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H117" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L117" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>737</v>
       </c>
@@ -25416,9 +29102,17 @@
       <c r="G118">
         <v>2715</v>
       </c>
-      <c r="H118" s="4"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H118" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L118" t="s">
+        <v>2462</v>
+      </c>
+      <c r="M118">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>739</v>
       </c>
@@ -25440,9 +29134,20 @@
       <c r="G119">
         <v>4576</v>
       </c>
-      <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H119" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I119" t="s">
+        <v>2471</v>
+      </c>
+      <c r="L119" t="s">
+        <v>2460</v>
+      </c>
+      <c r="M119">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>741</v>
       </c>
@@ -25464,9 +29169,20 @@
       <c r="G120" t="s">
         <v>65</v>
       </c>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H120" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I120" t="s">
+        <v>2472</v>
+      </c>
+      <c r="L120" t="s">
+        <v>2461</v>
+      </c>
+      <c r="M120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>743</v>
       </c>
@@ -25488,9 +29204,20 @@
       <c r="G121" t="s">
         <v>65</v>
       </c>
-      <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H121" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I121" t="s">
+        <v>652</v>
+      </c>
+      <c r="L121" t="s">
+        <v>2463</v>
+      </c>
+      <c r="M121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>745</v>
       </c>
@@ -25504,7 +29231,7 @@
         <v>64</v>
       </c>
       <c r="E122">
-        <v>4732356385</v>
+        <v>3123111342</v>
       </c>
       <c r="F122">
         <v>121</v>
@@ -25512,9 +29239,20 @@
       <c r="G122" t="s">
         <v>65</v>
       </c>
-      <c r="H122" s="4"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H122" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I122" t="s">
+        <v>2473</v>
+      </c>
+      <c r="L122" t="s">
+        <v>2464</v>
+      </c>
+      <c r="M122">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>747</v>
       </c>
@@ -25536,9 +29274,17 @@
       <c r="G123" t="s">
         <v>65</v>
       </c>
-      <c r="H123" s="4"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H123" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L123" t="s">
+        <v>2465</v>
+      </c>
+      <c r="M123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>349</v>
       </c>
@@ -25560,8 +29306,11 @@
       <c r="G124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H124" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>626</v>
       </c>
@@ -25583,8 +29332,14 @@
       <c r="G125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H125" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I125" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>352</v>
       </c>
@@ -25606,8 +29361,14 @@
       <c r="G126">
         <v>2181</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H126" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I126" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>355</v>
       </c>
@@ -25630,7 +29391,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>358</v>
       </c>
@@ -48974,12 +52735,1076 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>2725582296</v>
+      </c>
+      <c r="F2">
+        <v>2961</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>2725582296</v>
+      </c>
+      <c r="F3">
+        <v>2961</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2439</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4">
+        <v>7.0218678536375898E+17</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2475</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2483</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2439</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>18369812</v>
+      </c>
+      <c r="F5">
+        <v>618963</v>
+      </c>
+      <c r="G5">
+        <v>3819</v>
+      </c>
+      <c r="H5" t="s">
+        <v>321</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2475</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2494</v>
+      </c>
+      <c r="P5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6">
+        <v>32627702</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2477</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2493</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2496</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <v>18369812</v>
+      </c>
+      <c r="F7">
+        <v>618963</v>
+      </c>
+      <c r="G7">
+        <v>3819</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2477</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2495</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E8">
+        <v>26130520</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>2428</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2492</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2428</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>541076667</v>
+      </c>
+      <c r="F9">
+        <v>2795</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2429</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>270106571</v>
+      </c>
+      <c r="F10">
+        <v>588251</v>
+      </c>
+      <c r="G10">
+        <v>49</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2482</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2432</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>270106571</v>
+      </c>
+      <c r="F11">
+        <v>588251</v>
+      </c>
+      <c r="G11">
+        <v>49</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2478</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2431</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12">
+        <v>3219100369</v>
+      </c>
+      <c r="F12">
+        <v>26443</v>
+      </c>
+      <c r="G12">
+        <v>2677</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2490</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>541076667</v>
+      </c>
+      <c r="F13">
+        <v>2795</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2449</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14">
+        <v>784890702</v>
+      </c>
+      <c r="F14">
+        <v>23385</v>
+      </c>
+      <c r="G14">
+        <v>25671</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2434</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15">
+        <v>4093545143</v>
+      </c>
+      <c r="F15">
+        <v>3378</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2481</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2438</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16">
+        <v>2898339167</v>
+      </c>
+      <c r="F16">
+        <v>23219</v>
+      </c>
+      <c r="G16">
+        <v>16541</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>2435</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2437</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17">
+        <v>129956940</v>
+      </c>
+      <c r="F17">
+        <v>7525</v>
+      </c>
+      <c r="G17">
+        <v>851</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2430</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18">
+        <v>1347362516</v>
+      </c>
+      <c r="F18">
+        <v>6389</v>
+      </c>
+      <c r="G18">
+        <v>7005</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2480</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19">
+        <v>784890702</v>
+      </c>
+      <c r="F19">
+        <v>23385</v>
+      </c>
+      <c r="G19">
+        <v>25671</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="M19">
+        <f>SUM(M4:M18)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>309</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20">
+        <v>784890702</v>
+      </c>
+      <c r="F20">
+        <v>23385</v>
+      </c>
+      <c r="G20">
+        <v>25671</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>541076667</v>
+      </c>
+      <c r="F21">
+        <v>2795</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22">
+        <v>2360597707</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23">
+        <v>541076667</v>
+      </c>
+      <c r="F23">
+        <v>2795</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24">
+        <v>541076667</v>
+      </c>
+      <c r="F24">
+        <v>2795</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>541076667</v>
+      </c>
+      <c r="F25">
+        <v>2795</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26">
+        <v>541076667</v>
+      </c>
+      <c r="F26">
+        <v>2795</v>
+      </c>
+      <c r="G26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27">
+        <v>541076667</v>
+      </c>
+      <c r="F27">
+        <v>2795</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2489</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>700</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>701</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28">
+        <v>140710131</v>
+      </c>
+      <c r="F28">
+        <v>125580</v>
+      </c>
+      <c r="G28">
+        <v>69865</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>702</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>703</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29">
+        <v>3219100369</v>
+      </c>
+      <c r="F29">
+        <v>26443</v>
+      </c>
+      <c r="G29">
+        <v>2677</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>710</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>711</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30">
+        <v>3226602412</v>
+      </c>
+      <c r="F30">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" t="s">
+        <v>319</v>
+      </c>
+      <c r="E31">
+        <v>7.0218678536375898E+17</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>2475</v>
+      </c>
+      <c r="J31" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/twitter_data/Top_Retweets.xlsx
+++ b/twitter_data/Top_Retweets.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="1080" windowWidth="28720" windowHeight="16920" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="80" yWindow="1080" windowWidth="28720" windowHeight="16920" tabRatio="500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="new_classified (higher thres)" sheetId="4" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="training set - RT &gt;=5" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
     <sheet name="Retweet_Media_Analysis" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
+    <sheet name="Link Analysis" sheetId="6" r:id="rId7"/>
+    <sheet name="Popular versus Unpopular Tweets" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6374" uniqueCount="2497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6718" uniqueCount="2701">
   <si>
     <t xml:space="preserve">https://twitter.com/#!/ReallyHighIdeas/status/704773404239536132 </t>
   </si>
@@ -7521,6 +7522,618 @@
   </si>
   <si>
     <t>Link connected to user (i.e. Instagram)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taking fat dabs and smoke tricks  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heres tommy chong with a jar full of dabs cannabis oil that might cost more than your home  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697243342191525889 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/heaathh_xO/status/697242956965740548 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697234821668442112 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/oftheeroses/status/697247241556209664 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697218426691936258 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697218424091480064 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697216415514791936 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/heaathh_xO/status/697208689913106432 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697202160170217472 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697186324931936256 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697186322457325570 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697186319596793856 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697170923938410496 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697153118719488000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697153116374827012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697120601954070528 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697103957638778880 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/heaathh_xO/status/697097926561157120 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697087622565404673 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697071259822137344 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697038483269943296 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696973006749331456 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696956678479020032 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696910903430610944 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/heaathh_xO/status/696889998793121793 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696881206986551296 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696874896467456000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696858885395623937 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696842247711535105 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696842245434019841 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696837921836441601 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696825878404141056 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696825876407660544 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/dabadolabs/status/696802543888785408 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696776867383107584 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696776865336291328 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696760530007040000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/StonedTube/status/696748862044815360 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696728069361414144 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696695048201580544 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696662596443713536 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696629504312119296 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/bearmanrulez/status/696624522728906752 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696613156852862976 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696597266149220352 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/TrollPhaceMusic/status/696563335978946560 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696547801270857728 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696531765595246592 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696531763250593792 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696515078711971841 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696515076765822976 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/heaathh_xO/status/696513500823339008 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/HCJustinn/status/697143684731691009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/BeeHighOfficial/status/696801220997095424 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/699852263527874560 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/699852261518938118 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/MmjStateLaws/status/699746133631959040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/702655000187547650 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/thc_dr/status/699772207547990017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/699658004531015680 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/thc_dr/status/699082858795790336 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/698694405415243776 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/698586696565166081 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/BuyMedtainer/status/698566623335211008 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/brotips/status/698340907574231040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/brotips/status/698330779261276160 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/WorldofDabs/status/697863589210750976 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697847574368096256 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/WorldofDabs/status/697606987257880576 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697484431196487682 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697123049821220864 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696943375447154688 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/FuntCaseUK/status/696801543081889794 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696759155294474240 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/StonedTube/status/699304434245959680 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/kawaii_brat/status/699080686385373184 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/697942953239511040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/heaathh_xO/status/697856922410688513 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/MyPottles/status/697602614263939073 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/MyPottles/status/697523734748524544 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/MyPottles/status/697523716771557376 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/Zahra_hippie/status/697516275141103616 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/TrollPhaceMusic/status/696527841995923456 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/BeeHighOfficial/status/699700313431924738 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/BBHGRF/status/699627578416455680 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/bearmanrulez/status/699473296023097344 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/BeeHighOfficial/status/699394039527952385 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/HIGH_TIMES_Mag/status/699362603898945536 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/BeeHighOfficial/status/699342946806734849 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/704399420750585856 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/704448674223362048 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/704481580757045248 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/704497584484683776 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/bearmanrulez/status/704546735901663233 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/704612346887409665 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/704710225459216384 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/704726574789046274 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/heaathh_xO/status/704726599372050432 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/704743389258870784 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/704743391188267008 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/704759283758424064 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/704792003188383744 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/704808664025042945 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696398023027400705 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/bearmanrulez/status/696360413412397061 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/696157704516046848 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/695842617867636736 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/WorldofDabs/status/695696504363814913 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/WorldofDabs/status/695642212181352448 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/MyPottles/status/695637764117663745 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/695405229739606017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/695310861578031104 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/740322706369957888 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/psychopshow/status/740623344714821632 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/710original/status/741764962662547456 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/#!/steephilllab/status/742503448252321792 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">strawberry cough  dabart dabartist waxartist dabs weed weedart strawberrycough  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wutang dabs aint nothing to fwithdabart dabartist waxartist dabs weed weedart  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new dabcubes by  design your own waxerz smokeshop dabs extracts pineappleexpress  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inspector dabit  dabrig dabbers dabs weed smokeshop vapeshop  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i love dabs   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">because i got high dabsgotmelike dabbedout dabs dabsohard lifeasadabber dailydabs dabbers dabaholic  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">got dabs  waxerz dabs dabbers dabjar extracts vapecommunity dabcommunity  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dabbers  dabsgotmelike dabbedout dabs dabsohard lifeasadabber dailydabs dabbers dabaholic dabtools  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">frosty dabart dabartist waxartist dabs weed weedart dabman  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mile high club dabart dabartist waxartist dabs weed weedart milehighclub superhighme  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">got friends who smoke  dabsgotmelike dabbedout dabs dabsohard lifeasadabber dailydabs joints  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">breakingdabs premium nonstick silicone containersdabmats by waxerz dabs d   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">robot dabs dabart dabartist waxartist dabs weed weedart  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">customizecreate your own   waxerz extracts dabs smokeshop dispensary cannabis weed   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">see for yourself   extracts dabs 710 dabporn waxerz weedfam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new glow in the dark waxerz  waxerz weedjar vape smokeshop glowinthedark dabs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leggo my dabs bro   waxerz dabs weedjar waxcontainer smokeshop legodabs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">perspective dabsgotmelike dabbedout dabs dabsohard lifeasadabber dailydabs dabbers dabaholic  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nothing but waxerz   dabs weed smokeshop  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">custom made waxerz with your logo on them   dabart dabartist waxartist dabs weed  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dabs up dabart dabartist waxartist dabs weed weedart surfsup dabsurfer  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create your own custom waxerz  waxcontainers weedjar dabjar weed extracts dab dabs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">weed nation  dabsgotmelike dabbedout dabs dabsohard lifeasadabber dailydabs dabbers dabaholic  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">monster dabs dabart dabartist waxartist dabs weed weedart waxerz shedabs magnumdabs monsterdabs extracts  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dont forget to vote   voted ivoted dabs extracts stoners extracts waxerz   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">got waxerz wwwwaxerzcom buy n bulkcustom create your own dabs extracts cannabis smokeshop vapeshop   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stay high dublin high dabs               carol redden shimizu 2016  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">found this somewhere lets get high dabs aggressively  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dabbers delight      via blueberrydabsauce  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dabbers delight      via madadabs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dabbers delight      via time2legalize  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dabbers delight      viacutthroatcutie  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">walked into high school jerkin  graduating high school dabbing   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">look at that whos getting me high next cannabis dabs   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">guys im so high right now that i just stepped into the shower with my bra on  dabs cannabis  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dingi live to stay high another day i love getting high on ur supply dabs   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">u guys left me dryampnot high whos buying my next gram of dabs  cannabis  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just call me betty cocker dabs cannabis weed 420 bho edibles potbrownies cannabisismedicine highlife   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just imagine what my 666 follower will get mission666 dabs dabqueen weed highlife  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 pieces of dab art that will blow your mind  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">youre either at graduation or taking fat dabs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> get your bong dab oilrig dabrig with freeshipping  ltltltltltltltlt kushrig kushlife calikush la </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i ran out of weed and shatter so i called the delivery service dab slabz and they brought my   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmj news  weeded mmjgirls medicalmarijuana w420 420 710 dabs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i liked a video from  brand new perkdabbing zombie  custom zombies stairway to  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chalkitup 099    marijuana cannabis dabs weed kush party club dance concert pot   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discreet shipping  we wont tell if you dont    marijuana kush dabs cannabis bud  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">puff puff pass the pottles    baggiesaretrashy  marijuana kush weed hash dabs pot  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how 2 use pottlesdro cones    cannabis marijuana gom kush weed pot dabs vapor   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discreet shipping  we wont tell if you dont    marijuana kush dabs cannabis  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discreet  shipping   we wont tell if you dont    marijuana kush dabs hash bud  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ya sins were way too high i need to cut iiiiiit  jesus on the cross   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">taking fat dabs and smoke tricks   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i couldnt help myself dabs cannabis marijuana medicalmarijuana mmj weed weedstagram   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">do you like smoking weed but want to try dabbing has you covered  learn more    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">take a dab  by thegassstation  worldofdabs wod oil shatter cannabis weed stonersbest  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the difference  worldofdabs wod dabs oil dabbing cannabis dab weed stonersbest  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dabs from another space by bendavidglass worldofdabs wod oil shatter cannabis weed stonersbest  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cookies n cream  by claritycounts  worldofdabs wod dabs shatter oil cannabis dab weed stonersbest  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">love how asian aunties think dabbing the oil on a samosa onto a tissue is a diet  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">weed cause the gun gone keep me in their for life and the phone gone go dead in 76 min ima b high dab for a week   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">standards high dab    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">celebrate 420 w thebearmanradioshow  p2 ows occupy ndaa nwo mmj mmot cannabis weed tfb stayhigh dabs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">420 thebearmanradioshow go perfect together  mmj mmot stayhigh cannabis notpp libcrib dabs norml ows p2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dab up  get high w thebearmanradioshow  p2 ows occupy notpp libcrib mmj stayhigh mmot  thc 1u socialist  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">thebearmanradioshow is live at 9pm on our new home  feelthebern ows occupy mmot mmj weed fix2016 lit dabs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heres tommy chong with a jar full of dabs cannabis oil that might cost more than your home   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add us on snap for dabsdeals  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fat dabs only   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">noonim still having morning dabs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">taking dabs before you leave togo smoke more somewhere else  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">first dabs out my nectar collector  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">our monday night routine massive dabsteen mom  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fat fat dabs   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">morning dabs turn into afternoon dabs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> need dabs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep23 hash stolen dabs smoking wax loving weed dank high pain podcast podernfamily    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pshow 23  hash stash dash a dial soap bar worth of dabs and the high from   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">swipes used to come in clutch when i was high dab  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i was high dab earlier  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">im high dab  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quick guide to cannabinoids    mmj cannabis weed 710 dabs marijuana science  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sales of dabs are surging in colorado   do you prefer 710 or 420    mmj cannabis flower weed thc  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">live  710 errl dabs weed liveresin rosin mmj cannabis marijuana macro trichomes ganja hightimes thc  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">errl girl  weed hash cannabis mmj dank rosin ganja marijuanamodels cannahack dabs dabbers maryjane thc  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mike dean weed dabs weed dabs new music  927 the block  </t>
   </si>
 </sst>
 </file>
@@ -7710,7 +8323,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7718,6 +8331,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -7899,7 +8514,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8118,9 +8732,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -8521,9 +9133,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -8602,7 +9212,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -9152,7 +9761,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$L$4:$L$18</c:f>
+              <c:f>'Link Analysis'!$L$4:$L$18</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -9205,7 +9814,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$M$4:$M$18</c:f>
+              <c:f>'Link Analysis'!$M$4:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -9699,14 +10308,12 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$O$5:$O$7</c:f>
+              <c:f>'Link Analysis'!$O$5:$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -9723,7 +10330,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$P$5:$P$7</c:f>
+              <c:f>'Link Analysis'!$P$5:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -52737,7 +53344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H4" workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
@@ -53807,4 +54414,2439 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:SW173"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:D125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65.83203125" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="8"/>
+      <c r="SW1" s="4"/>
+    </row>
+    <row r="2" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7">
+        <v>42417.057928240742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7">
+        <v>42408.760439814818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>42408.760439814818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>42416.759733796294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>42408.977789351855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>42409.268784722219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>42409.268784722219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>42429.991400462961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>42430.250613425924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>42430.258344907408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>42407.76390046296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>42409.764594907407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>42409.764594907407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>42410.022233796299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:517" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>42410.096539351849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>42410.761817129627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>42410.761817129627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>42412.027094907404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>42417.295787037037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>42429.989733796298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>42430.33997685185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>42534.987523148149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>42404.763912037037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>42405.024317129632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>42406.231273148151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>42407.100752314815</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <v>42408.086909722224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
+        <v>42408.086921296293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8">
+        <v>42408.132951388892</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8">
+        <v>42408.132962962962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>42408.177210648151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>42408.313715277778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <v>42408.357557870368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="8">
+        <v>42408.402673611112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>42408.493993055556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8">
+        <v>42408.583541666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8">
+        <v>42408.67465277778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="8">
+        <v>42408.764236111114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8">
+        <v>42408.809305555558</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="8">
+        <v>42408.809317129628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="8">
+        <v>42408.944548611114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="8">
+        <v>42408.944560185184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="8">
+        <v>42408.989722222221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="8">
+        <v>42408.989733796298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="8">
+        <v>42409.035636574074</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="8">
+        <v>42409.079826388886</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="8">
+        <v>42409.097233796296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="8">
+        <v>42409.179189814815</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="8">
+        <v>42409.305497685185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="8">
+        <v>42409.350555555553</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="8">
+        <v>42409.531238425923</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="8">
+        <v>42409.621678240743</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="8">
+        <v>42409.66684027778</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="8">
+        <v>42409.711909722224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="8">
+        <v>42409.757847222223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="8">
+        <v>42409.847569444442</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="8">
+        <v>42409.847569444442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="D59" s="8">
+        <v>42409.896701388891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="8">
+        <v>42409.939189814817</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="8">
+        <v>42409.939201388886</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="8">
+        <v>42409.939201388886</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="8">
+        <v>42409.982905092591</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="8">
+        <v>42410.027777777781</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+      <c r="D65" s="8">
+        <v>42410.027789351851</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="8">
+        <v>42410.07303240741</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="8">
+        <v>42411.76390046296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="D68" s="8">
+        <v>42411.76390046296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="8">
+        <v>42413.803495370368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="8">
+        <v>42413.803495370368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="8">
+        <v>42414.100717592592</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="8">
+        <v>42417.295787037037</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="8">
+        <v>42425.029872685183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74" s="8">
+        <v>42429.843553240738</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+      <c r="D75" s="8">
+        <v>42429.979467592595</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76" s="8">
+        <v>42430.070277777777</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+      <c r="D77" s="8">
+        <v>42430.114432870374</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78" s="8">
+        <v>42430.431122685186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+      <c r="D79" s="8">
+        <v>42430.701215277775</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0</v>
+      </c>
+      <c r="D80" s="8">
+        <v>42430.746331018519</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
+      <c r="D81" s="8">
+        <v>42430.792731481481</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+      <c r="D82" s="8">
+        <v>42430.792731481481</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83" s="8">
+        <v>42430.836585648147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+      <c r="D84" s="8">
+        <v>42430.926874999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85" s="8">
+        <v>42430.97284722222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="8">
+        <v>42528.972939814812</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+      <c r="D87" s="8">
+        <v>42532.9528125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C88" s="1">
+        <v>10</v>
+      </c>
+      <c r="D88" s="7">
+        <v>42531.061261574076</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C89" s="1">
+        <v>7</v>
+      </c>
+      <c r="D89" s="7">
+        <v>42416.675775462965</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C90" s="1">
+        <v>8</v>
+      </c>
+      <c r="D90" s="7">
+        <v>42416.876493055555</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5</v>
+      </c>
+      <c r="D91" s="7">
+        <v>42415.890347222223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2</v>
+      </c>
+      <c r="D92" s="8">
+        <v>42408.876516203702</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C93" s="3">
+        <v>2</v>
+      </c>
+      <c r="D93" s="8">
+        <v>42416.031331018516</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C94" s="1">
+        <v>7</v>
+      </c>
+      <c r="D94" s="7">
+        <v>42413.748101851852</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C95" s="1">
+        <v>7</v>
+      </c>
+      <c r="D95" s="7">
+        <v>42413.748101851852</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C96" s="1">
+        <v>8</v>
+      </c>
+      <c r="D96" s="7">
+        <v>42523.597233796296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C97" s="1">
+        <v>6</v>
+      </c>
+      <c r="D97" s="7">
+        <v>42525.844097222223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C98" s="1">
+        <v>6</v>
+      </c>
+      <c r="D98" s="7">
+        <v>42530.748368055552</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C99" s="1">
+        <v>5</v>
+      </c>
+      <c r="D99" s="7">
+        <v>42530.818912037037</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C100" s="3">
+        <v>2</v>
+      </c>
+      <c r="D100" s="8">
+        <v>42531.974722222221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+      <c r="D101" s="8">
+        <v>42533.982060185182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="8">
+        <v>42534.756157407406</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C103" s="1">
+        <v>8</v>
+      </c>
+      <c r="D103" s="7">
+        <v>42408.87740740741</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C104" s="1">
+        <v>8</v>
+      </c>
+      <c r="D104" s="7">
+        <v>42408.87740740741</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C105" s="1">
+        <v>9</v>
+      </c>
+      <c r="D105" s="7">
+        <v>42409.821539351855</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C106" s="1">
+        <v>9</v>
+      </c>
+      <c r="D106" s="7">
+        <v>42409.821539351855</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C107" s="1">
+        <v>9</v>
+      </c>
+      <c r="D107" s="7">
+        <v>42415.94458333333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C108" s="1">
+        <v>6</v>
+      </c>
+      <c r="D108" s="7">
+        <v>42526.67083333333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C109" s="1">
+        <v>7</v>
+      </c>
+      <c r="D109" s="7">
+        <v>42468.297534722224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C110" s="1">
+        <v>9</v>
+      </c>
+      <c r="D110" s="7">
+        <v>42534.067662037036</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C111" s="1">
+        <v>9</v>
+      </c>
+      <c r="D111" s="7">
+        <v>42417.002928240741</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C112" s="1">
+        <v>6</v>
+      </c>
+      <c r="D112" s="7">
+        <v>42527.568796296298</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C113" s="1">
+        <v>8</v>
+      </c>
+      <c r="D113" s="7">
+        <v>42536.653449074074</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C114" s="1">
+        <v>6</v>
+      </c>
+      <c r="D114" s="7">
+        <v>42405.665983796294</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C115" s="1">
+        <v>6</v>
+      </c>
+      <c r="D115" s="7">
+        <v>42410.87023148148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C116" s="3">
+        <v>4</v>
+      </c>
+      <c r="D116" s="8">
+        <v>42531.224907407406</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C117" s="3">
+        <v>2</v>
+      </c>
+      <c r="D117" s="8">
+        <v>42410.87027777778</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1</v>
+      </c>
+      <c r="D118" s="8">
+        <v>42411.087939814817</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C119" s="1">
+        <v>7</v>
+      </c>
+      <c r="D119" s="7">
+        <v>42533.000833333332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C120" s="1">
+        <v>6</v>
+      </c>
+      <c r="D120" s="7">
+        <v>42526.908645833333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C121" s="1">
+        <v>7</v>
+      </c>
+      <c r="D121" s="7">
+        <v>42415.784074074072</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0</v>
+      </c>
+      <c r="D122" s="8">
+        <v>42408.732037037036</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0</v>
+      </c>
+      <c r="D123" s="8">
+        <v>42408.732037037036</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C124" s="1">
+        <v>6</v>
+      </c>
+      <c r="D124" s="7">
+        <v>42526.182696759257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C125" s="1">
+        <v>8</v>
+      </c>
+      <c r="D125" s="7">
+        <v>42408.122141203705</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="C126" s="3">
+        <v>2</v>
+      </c>
+      <c r="D126" s="8">
+        <v>42408.220081018517</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C127" s="1">
+        <v>10</v>
+      </c>
+      <c r="D127" s="7">
+        <v>42528.929212962961</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C128" s="1">
+        <v>9</v>
+      </c>
+      <c r="D128" s="7">
+        <v>42405.678263888891</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C129" s="1">
+        <v>6</v>
+      </c>
+      <c r="D129" s="7">
+        <v>42411.80810185185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C130" s="1">
+        <v>6</v>
+      </c>
+      <c r="D130" s="7">
+        <v>42411.80810185185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C131" s="3">
+        <v>2</v>
+      </c>
+      <c r="D131" s="8">
+        <v>42405.8280787037</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1</v>
+      </c>
+      <c r="D132" s="8">
+        <v>42411.100011574075</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C133" s="3">
+        <v>1</v>
+      </c>
+      <c r="D133" s="8">
+        <v>42411.100011574075</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C134" s="1">
+        <v>8</v>
+      </c>
+      <c r="D134" s="7">
+        <v>42410.849687499998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C135" s="1">
+        <v>6</v>
+      </c>
+      <c r="D135" s="7">
+        <v>42533.171875</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C136" s="1">
+        <v>7</v>
+      </c>
+      <c r="D136" s="7">
+        <v>42527.9299537037</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C137" s="1">
+        <v>8</v>
+      </c>
+      <c r="D137" s="7">
+        <v>42407.660115740742</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C138" s="1">
+        <v>8</v>
+      </c>
+      <c r="D138" s="7">
+        <v>42408.388923611114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C139" s="1">
+        <v>6</v>
+      </c>
+      <c r="D139" s="7">
+        <v>42525.847291666665</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C140" s="1">
+        <v>6</v>
+      </c>
+      <c r="D140" s="7">
+        <v>42527.347291666665</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C141" s="1">
+        <v>6</v>
+      </c>
+      <c r="D141" s="7">
+        <v>42528.208391203705</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C142" s="1">
+        <v>6</v>
+      </c>
+      <c r="D142" s="7">
+        <v>42531.027974537035</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C143" s="1">
+        <v>6</v>
+      </c>
+      <c r="D143" s="7">
+        <v>42532.847268518519</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C144" s="1">
+        <v>6</v>
+      </c>
+      <c r="D144" s="7">
+        <v>42534.347233796296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0</v>
+      </c>
+      <c r="D145" s="8">
+        <v>42416.2500462963</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C146" s="3">
+        <v>0</v>
+      </c>
+      <c r="D146" s="8">
+        <v>42430.250069444446</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C147" s="1">
+        <v>8</v>
+      </c>
+      <c r="D147" s="7">
+        <v>42413.097291666665</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C148" s="1">
+        <v>8</v>
+      </c>
+      <c r="D148" s="7">
+        <v>42413.097291666665</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C149" s="1">
+        <v>8</v>
+      </c>
+      <c r="D149" s="7">
+        <v>42413.125243055554</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C150" s="1">
+        <v>8</v>
+      </c>
+      <c r="D150" s="7">
+        <v>42413.125243055554</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C151" s="1">
+        <v>8</v>
+      </c>
+      <c r="D151" s="7">
+        <v>42408.880173611113</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C152" s="1">
+        <v>5</v>
+      </c>
+      <c r="D152" s="7">
+        <v>42531.964722222219</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C153" s="3">
+        <v>2</v>
+      </c>
+      <c r="D153" s="8">
+        <v>42409.6952662037</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="C154" s="3">
+        <v>2</v>
+      </c>
+      <c r="D154" s="8">
+        <v>42410.09547453704</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C155" s="3">
+        <v>2</v>
+      </c>
+      <c r="D155" s="8">
+        <v>42411.789699074077</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="8">
+        <v>42408.082557870373</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="8">
+        <v>42409.121493055558</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="8">
+        <v>42410.000914351855</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="8">
+        <v>42528.051157407404</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C160" s="3">
+        <v>0</v>
+      </c>
+      <c r="D160" s="8">
+        <v>42430.746400462966</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C161" s="1">
+        <v>10</v>
+      </c>
+      <c r="D161" s="7">
+        <v>42415.166643518518</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C162" s="1">
+        <v>8</v>
+      </c>
+      <c r="D162" s="7">
+        <v>42410.107303240744</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C163" s="1">
+        <v>5</v>
+      </c>
+      <c r="D163" s="7">
+        <v>42529.774583333332</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C164" s="3">
+        <v>0</v>
+      </c>
+      <c r="D164" s="8">
+        <v>42529.802546296298</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C165" s="1">
+        <v>6</v>
+      </c>
+      <c r="D165" s="7">
+        <v>42530.84784722222</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="8">
+        <v>42523.383136574077</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="8">
+        <v>42532.241701388892</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C168" s="1">
+        <v>7</v>
+      </c>
+      <c r="D168" s="7">
+        <v>42430.876400462963</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="8">
+        <v>42430.668749999997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C170" s="3">
+        <v>0</v>
+      </c>
+      <c r="D170" s="8">
+        <v>42534.990636574075</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C171" s="1">
+        <v>8</v>
+      </c>
+      <c r="D171" s="7">
+        <v>42415.172638888886</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C172" s="1">
+        <v>5</v>
+      </c>
+      <c r="D172" s="7">
+        <v>42417.074884259258</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C173" s="1">
+        <v>10</v>
+      </c>
+      <c r="D173" s="7">
+        <v>42429.891793981478</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>